--- a/音超福布斯.xlsx
+++ b/音超福布斯.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="258">
   <si>
     <t>29届</t>
     <phoneticPr fontId="1"/>
@@ -1787,6 +1787,10 @@
   </si>
   <si>
     <t>EURO</t>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -11327,7 +11331,7 @@
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11340,10 +11344,8 @@
     <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="15" max="15" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="17" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="5" customWidth="1"/>
+    <col min="18" max="18" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -11377,48 +11379,48 @@
     </row>
     <row r="2" spans="1:19">
       <c r="B2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2">
         <v>40</v>
       </c>
       <c r="I2" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J2" s="2">
         <f>H2*I2</f>
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="K2" s="2">
         <v>20</v>
       </c>
       <c r="L2" s="2">
         <f>J2-K2</f>
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="S2" s="58"/>
     </row>
     <row r="3" spans="1:19">
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" s="24"/>
     </row>
@@ -11428,56 +11430,56 @@
     <row r="5" spans="1:19">
       <c r="B5" s="4">
         <f>B1/SUM(B$1:B$3)</f>
-        <v>0.46666666666666667</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:D5" si="0">C1/SUM(C$1:C$3)</f>
-        <v>0.46666666666666667</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ref="E5:E6" si="1">E1/SUM(E$1:E$3)</f>
-        <v>0.46666666666666667</v>
+        <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="B6" s="4">
         <f t="shared" ref="B6:D7" si="2">B2/SUM(B$1:B$3)</f>
-        <v>0.33333333333333331</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19">
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
         <f>D3/SUM(D$1:D$3)</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
         <f>E3/SUM(E$1:E$3)</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -11501,19 +11503,19 @@
       </c>
       <c r="B9" s="8">
         <f>B$13*B5</f>
-        <v>28</v>
+        <v>22.272727272727273</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" si="3">C$13*C5</f>
-        <v>23.999999999999996</v>
+        <v>19.09090909090909</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="3"/>
-        <v>20.000000000000004</v>
+        <v>15.909090909090908</v>
       </c>
       <c r="E9" s="8">
         <f>E$13*E5</f>
-        <v>40.000000000000007</v>
+        <v>31.818181818181817</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -11522,19 +11524,19 @@
       </c>
       <c r="B10" s="8">
         <f t="shared" ref="B10:E11" si="4">B$13*B6</f>
-        <v>20</v>
+        <v>12.727272727272728</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="4"/>
-        <v>17.142857142857139</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="D10" s="8">
         <f>D$13*D6</f>
-        <v>14.285714285714286</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="E10" s="8">
         <f>E$13*E6</f>
-        <v>28.571428571428573</v>
+        <v>18.181818181818183</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -11543,19 +11545,19 @@
       </c>
       <c r="B11" s="8">
         <f>B$13*B7</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C11" s="8">
         <f t="shared" si="4"/>
-        <v>10.285714285714285</v>
+        <v>0</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="4"/>
-        <v>8.571428571428573</v>
+        <v>0</v>
       </c>
       <c r="E11" s="8">
         <f t="shared" si="4"/>
-        <v>17.142857142857146</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>94</v>
@@ -11590,49 +11592,49 @@
         <v>84</v>
       </c>
       <c r="K12" s="50">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L12" s="50">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M12" s="50">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N12" s="50">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="B13" s="5">
         <f>E19</f>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5">
         <f>E20</f>
-        <v>51.428571428571423</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5">
         <f>E21</f>
-        <v>42.857142857142861</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5">
         <f>E22</f>
-        <v>85.714285714285722</v>
+        <v>50</v>
       </c>
       <c r="J13" s="26" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="50">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L13" s="50">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M13" s="50">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N13" s="50">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -11640,16 +11642,16 @@
         <v>85</v>
       </c>
       <c r="K14" s="50">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L14" s="50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M14" s="50">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N14" s="50">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -11673,7 +11675,7 @@
         <v>21</v>
       </c>
       <c r="O17" s="61">
-        <f t="shared" ref="O17:O20" si="5">SUMIF($O$12:$R$14,N17,$K$12:$N$14)</f>
+        <f t="shared" ref="O17:O19" si="5">SUMIF($O$12:$R$14,N17,$K$12:$N$14)</f>
         <v>0</v>
       </c>
     </row>
@@ -11685,21 +11687,21 @@
         <v>48</v>
       </c>
       <c r="E18" s="6">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="J18" s="36" t="s">
         <v>255</v>
       </c>
       <c r="K18" s="75">
         <f>SUM(K12:K14)</f>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="L18" s="3"/>
       <c r="N18" s="26" t="s">
         <v>20</v>
       </c>
       <c r="O18" s="61">
-        <f t="shared" si="5"/>
+        <f>SUMIF($O$12:$R$14,N18,$K$12:$N$14)</f>
         <v>0</v>
       </c>
     </row>
@@ -11713,18 +11715,18 @@
       </c>
       <c r="E19" s="10">
         <f>$E$18*D19</f>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="J19" s="36" t="s">
         <v>253</v>
       </c>
       <c r="K19" s="75">
         <f>SUM(L12:L14)</f>
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L19" s="3"/>
       <c r="N19" s="2" t="s">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="O19" s="61">
         <f t="shared" si="5"/>
@@ -11741,21 +11743,21 @@
       </c>
       <c r="E20" s="10">
         <f t="shared" ref="E20" si="6">$E$18*D20</f>
-        <v>51.428571428571423</v>
+        <v>30</v>
       </c>
       <c r="J20" s="36" t="s">
         <v>221</v>
       </c>
       <c r="K20" s="75">
         <f>SUM(M12:M14)</f>
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="L20" s="3"/>
       <c r="N20" s="61" t="s">
         <v>22</v>
       </c>
       <c r="O20" s="61">
-        <f t="shared" si="5"/>
+        <f>SUMIF($O$12:$R$14,N20,$K$12:$N$14)</f>
         <v>0</v>
       </c>
     </row>
@@ -11769,17 +11771,17 @@
       </c>
       <c r="E21" s="10">
         <f>$E$18*D21</f>
-        <v>42.857142857142861</v>
+        <v>25</v>
       </c>
       <c r="J21" s="76" t="s">
         <v>227</v>
       </c>
       <c r="K21" s="75">
         <f>SUM(N12:N14)</f>
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="L21" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O21" s="58"/>
     </row>
@@ -11793,7 +11795,7 @@
       </c>
       <c r="E22" s="10">
         <f>$E$18*D22</f>
-        <v>85.714285714285722</v>
+        <v>50</v>
       </c>
       <c r="O22" s="58"/>
       <c r="P22" s="58"/>
@@ -11815,7 +11817,7 @@
         <v>54</v>
       </c>
       <c r="E24" s="27">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F24" s="51"/>
       <c r="N24" s="50" t="s">
@@ -11832,7 +11834,7 @@
       </c>
       <c r="E25" s="57">
         <f>$E$24*D25</f>
-        <v>25.714285714285712</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="F25" s="51"/>
       <c r="N25" s="50" t="s">
@@ -11849,7 +11851,7 @@
       </c>
       <c r="E26" s="57">
         <f>$E$24*D26</f>
-        <v>21.428571428571431</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="F26" s="51"/>
       <c r="N26" s="50" t="s">
@@ -11866,7 +11868,7 @@
       </c>
       <c r="E27" s="57">
         <f t="shared" ref="E27" si="8">$E$24*D27</f>
-        <v>12.857142857142856</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="F27" s="51"/>
       <c r="N27" s="50" t="s">
@@ -11936,7 +11938,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -12367,7 +12369,7 @@
   <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12694,12 +12696,12 @@
         <v>251</v>
       </c>
       <c r="B23" s="41">
-        <v>43136</v>
+        <v>43161</v>
       </c>
       <c r="C23" s="41"/>
       <c r="D23" s="36">
         <f t="shared" ref="D23" si="3">C23-B23</f>
-        <v>-43136</v>
+        <v>-43161</v>
       </c>
     </row>
   </sheetData>

--- a/音超福布斯.xlsx
+++ b/音超福布斯.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="259">
   <si>
     <t>29届</t>
     <phoneticPr fontId="1"/>
@@ -1790,6 +1790,10 @@
   </si>
   <si>
     <t>黑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2726,7 +2730,7 @@
   <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S12" sqref="A1:S12"/>
+      <selection sqref="A1:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11331,7 +11335,7 @@
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11379,48 +11383,48 @@
     </row>
     <row r="2" spans="1:19">
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2">
         <v>40</v>
       </c>
       <c r="I2" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" s="2">
         <f>H2*I2</f>
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K2" s="2">
         <v>20</v>
       </c>
       <c r="L2" s="2">
         <f>J2-K2</f>
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="S2" s="58"/>
     </row>
     <row r="3" spans="1:19">
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S3" s="24"/>
     </row>
@@ -11430,56 +11434,56 @@
     <row r="5" spans="1:19">
       <c r="B5" s="4">
         <f>B1/SUM(B$1:B$3)</f>
-        <v>0.63636363636363635</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:D5" si="0">C1/SUM(C$1:C$3)</f>
-        <v>0.63636363636363635</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>0.63636363636363635</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ref="E5:E6" si="1">E1/SUM(E$1:E$3)</f>
-        <v>0.63636363636363635</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="B6" s="4">
         <f t="shared" ref="B6:D7" si="2">B2/SUM(B$1:B$3)</f>
-        <v>0.36363636363636365</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="2"/>
-        <v>0.36363636363636365</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="2"/>
-        <v>0.36363636363636365</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0.36363636363636365</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19">
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D7" s="4">
         <f>D3/SUM(D$1:D$3)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E7" s="4">
         <f>E3/SUM(E$1:E$3)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -11503,19 +11507,19 @@
       </c>
       <c r="B9" s="8">
         <f>B$13*B5</f>
-        <v>22.272727272727273</v>
+        <v>21</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" si="3">C$13*C5</f>
-        <v>19.09090909090909</v>
+        <v>18</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="3"/>
-        <v>15.909090909090908</v>
+        <v>15.000000000000002</v>
       </c>
       <c r="E9" s="8">
         <f>E$13*E5</f>
-        <v>31.818181818181817</v>
+        <v>30.000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -11524,19 +11528,19 @@
       </c>
       <c r="B10" s="8">
         <f t="shared" ref="B10:E11" si="4">B$13*B6</f>
-        <v>12.727272727272728</v>
+        <v>15</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="4"/>
-        <v>10.90909090909091</v>
+        <v>12.857142857142856</v>
       </c>
       <c r="D10" s="8">
         <f>D$13*D6</f>
-        <v>9.0909090909090917</v>
+        <v>10.714285714285715</v>
       </c>
       <c r="E10" s="8">
         <f>E$13*E6</f>
-        <v>18.181818181818183</v>
+        <v>21.428571428571431</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -11545,19 +11549,19 @@
       </c>
       <c r="B11" s="8">
         <f>B$13*B7</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.7142857142857144</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.4285714285714297</v>
       </c>
       <c r="E11" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12.857142857142859</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>94</v>
@@ -11592,49 +11596,49 @@
         <v>84</v>
       </c>
       <c r="K12" s="50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L12" s="50">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="50">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N12" s="50">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="B13" s="5">
         <f>E19</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5">
         <f>E20</f>
-        <v>30</v>
+        <v>38.571428571428569</v>
       </c>
       <c r="D13" s="5">
         <f>E21</f>
-        <v>25</v>
+        <v>32.142857142857146</v>
       </c>
       <c r="E13" s="5">
         <f>E22</f>
-        <v>50</v>
+        <v>64.285714285714292</v>
       </c>
       <c r="J13" s="26" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="50">
+        <v>15</v>
+      </c>
+      <c r="L13" s="50">
         <v>13</v>
       </c>
-      <c r="L13" s="50">
+      <c r="M13" s="50">
         <v>11</v>
       </c>
-      <c r="M13" s="50">
-        <v>9</v>
-      </c>
       <c r="N13" s="50">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -11642,16 +11646,16 @@
         <v>85</v>
       </c>
       <c r="K14" s="50">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L14" s="50">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M14" s="50">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N14" s="50">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -11672,7 +11676,7 @@
         <v>54</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O17" s="61">
         <f t="shared" ref="O17:O19" si="5">SUMIF($O$12:$R$14,N17,$K$12:$N$14)</f>
@@ -11687,14 +11691,14 @@
         <v>48</v>
       </c>
       <c r="E18" s="6">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="J18" s="36" t="s">
         <v>255</v>
       </c>
       <c r="K18" s="75">
         <f>SUM(K12:K14)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L18" s="3"/>
       <c r="N18" s="26" t="s">
@@ -11715,14 +11719,14 @@
       </c>
       <c r="E19" s="10">
         <f>$E$18*D19</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J19" s="36" t="s">
         <v>253</v>
       </c>
       <c r="K19" s="75">
         <f>SUM(L12:L14)</f>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="L19" s="3"/>
       <c r="N19" s="2" t="s">
@@ -11743,14 +11747,14 @@
       </c>
       <c r="E20" s="10">
         <f t="shared" ref="E20" si="6">$E$18*D20</f>
-        <v>30</v>
+        <v>38.571428571428569</v>
       </c>
       <c r="J20" s="36" t="s">
         <v>221</v>
       </c>
       <c r="K20" s="75">
         <f>SUM(M12:M14)</f>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L20" s="3"/>
       <c r="N20" s="61" t="s">
@@ -11771,19 +11775,25 @@
       </c>
       <c r="E21" s="10">
         <f>$E$18*D21</f>
-        <v>25</v>
+        <v>32.142857142857146</v>
       </c>
       <c r="J21" s="76" t="s">
         <v>227</v>
       </c>
       <c r="K21" s="75">
         <f>SUM(N12:N14)</f>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="L21" s="3">
         <v>40</v>
       </c>
-      <c r="O21" s="58"/>
+      <c r="N21" s="79" t="s">
+        <v>258</v>
+      </c>
+      <c r="O21" s="61">
+        <f>SUMIF($O$12:$R$14,N21,$K$12:$N$14)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:17">
       <c r="C22" s="50">
@@ -11795,7 +11805,7 @@
       </c>
       <c r="E22" s="10">
         <f>$E$18*D22</f>
-        <v>50</v>
+        <v>64.285714285714292</v>
       </c>
       <c r="O22" s="58"/>
       <c r="P22" s="58"/>
@@ -11905,6 +11915,9 @@
       </c>
       <c r="K30" s="90" t="s">
         <v>5</v>
+      </c>
+      <c r="N30" s="79" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="2:17">

--- a/音超福布斯.xlsx
+++ b/音超福布斯.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Stores/Documents/ISCPrimierLeague/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC712520-D7F8-6446-8F9D-9DACDA5FA3D3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20415" windowHeight="7995" tabRatio="881" firstSheet="6" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22640" windowHeight="13200" tabRatio="881" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forbs " sheetId="8" r:id="rId1"/>
@@ -32,12 +38,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">奖金分配44!$A$51:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">奖金分配45!$A$51:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="260">
   <si>
     <t>29届</t>
     <phoneticPr fontId="1"/>
@@ -66,7 +72,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -87,7 +93,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -98,7 +104,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -131,7 +137,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -148,7 +154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -205,7 +211,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -292,7 +298,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -309,7 +315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -338,7 +344,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -349,7 +355,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -366,7 +372,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -446,7 +452,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -457,7 +463,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -522,7 +528,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -538,7 +544,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -586,7 +592,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -619,7 +625,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -630,7 +636,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -671,7 +677,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -688,7 +694,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -699,7 +705,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -771,7 +777,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -804,7 +810,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -829,7 +835,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -854,7 +860,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -875,7 +881,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -892,7 +898,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -921,7 +927,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -938,7 +944,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -983,7 +989,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1004,7 +1010,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1049,7 +1055,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1060,7 +1066,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1093,7 +1099,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1118,7 +1124,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1135,7 +1141,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1152,7 +1158,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1177,7 +1183,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1206,7 +1212,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1239,7 +1245,7 @@
         <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1251,7 +1257,7 @@
         <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1263,7 +1269,7 @@
         <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1281,7 +1287,7 @@
         <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1301,7 +1307,7 @@
         <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1322,7 +1328,7 @@
         <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1389,7 +1395,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1410,7 +1416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1459,7 +1465,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1484,7 +1490,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1505,7 +1511,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1530,7 +1536,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1558,7 +1564,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1605,7 +1611,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1643,7 +1649,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1692,7 +1698,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1703,7 +1709,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1714,7 +1720,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1725,7 +1731,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1742,7 +1748,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1766,7 +1772,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1796,11 +1802,15 @@
     <t>宇</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>黒</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
@@ -1815,14 +1825,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1830,7 +1840,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1838,7 +1848,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1846,7 +1856,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1854,7 +1864,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1863,7 +1873,7 @@
       <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1872,7 +1882,7 @@
       <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1881,7 +1891,7 @@
       <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2349,7 +2359,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2374,6 +2384,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2394,7 +2412,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="四角形吹き出し 1"/>
+        <xdr:cNvPr id="2" name="四角形吹き出し 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2443,7 +2467,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2485,7 +2509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2517,9 +2541,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2551,6 +2593,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2726,20 +2786,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="10" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="5.375" customWidth="1"/>
-    <col min="16" max="17" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="5.33203125" customWidth="1"/>
+    <col min="16" max="17" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -3560,9 +3620,9 @@
   <conditionalFormatting sqref="I3:O12">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -3572,9 +3632,9 @@
   <conditionalFormatting sqref="H3:H12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -3584,9 +3644,9 @@
   <conditionalFormatting sqref="G3:G12">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -3596,9 +3656,9 @@
   <conditionalFormatting sqref="F3:F12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -3608,9 +3668,9 @@
   <conditionalFormatting sqref="E3:E12">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -3620,9 +3680,9 @@
   <conditionalFormatting sqref="D3:D12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -3632,9 +3692,9 @@
   <conditionalFormatting sqref="C3:C12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -3647,17 +3707,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4382,17 +4442,17 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="I32" sqref="I32:K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -5163,24 +5223,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
-    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="15" max="15" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="17" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -6163,26 +6223,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="15" max="15" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="17" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7248,26 +7308,26 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="15" max="15" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="17" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8206,26 +8266,26 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
     <col min="15" max="15" width="3.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="17" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9187,26 +9247,26 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M32" sqref="M32:N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
     <col min="15" max="15" width="3.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="17" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10204,26 +10264,26 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
     <col min="15" max="15" width="3.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="17" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11328,28 +11388,28 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="200" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
     <col min="15" max="17" width="5" customWidth="1"/>
-    <col min="18" max="18" width="5.25" customWidth="1"/>
+    <col min="18" max="18" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -11607,6 +11667,15 @@
       <c r="N12" s="50">
         <v>30</v>
       </c>
+      <c r="O12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:19">
       <c r="B13" s="5">
@@ -11640,6 +11709,12 @@
       <c r="N13" s="50">
         <v>21</v>
       </c>
+      <c r="P13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="14" spans="1:19">
       <c r="J14" s="2" t="s">
@@ -11657,6 +11732,12 @@
       <c r="N14" s="50">
         <v>13</v>
       </c>
+      <c r="P14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:19">
       <c r="N16" s="61" t="s">
@@ -11664,7 +11745,7 @@
       </c>
       <c r="O16" s="61">
         <f>SUMIF($O$12:$R$14,N16,$K$12:$N$14)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:17">
@@ -11680,7 +11761,7 @@
       </c>
       <c r="O17" s="61">
         <f t="shared" ref="O17:O19" si="5">SUMIF($O$12:$R$14,N17,$K$12:$N$14)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -11762,7 +11843,7 @@
       </c>
       <c r="O20" s="61">
         <f>SUMIF($O$12:$R$14,N20,$K$12:$N$14)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:17">
@@ -11988,11 +12069,11 @@
       </c>
       <c r="J33" s="29">
         <f>IFERROR(VLOOKUP(B33,$N$16:$O$23,2,FALSE),0)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K33" s="29">
         <f t="shared" ref="K33:K38" si="10">SUM(I33:J33)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O33" s="43"/>
     </row>
@@ -12025,11 +12106,11 @@
       </c>
       <c r="J34" s="29">
         <f t="shared" ref="J34:J39" si="15">IFERROR(VLOOKUP(B34,$N$16:$O$23,2,FALSE),0)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K34" s="29">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N34" s="59"/>
       <c r="O34" s="24"/>
@@ -12139,11 +12220,11 @@
       </c>
       <c r="J37" s="29">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K37" s="29">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N37" s="59"/>
       <c r="O37" s="24"/>
@@ -12378,17 +12459,17 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.625" style="85" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.6640625" style="85" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12728,21 +12809,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" customWidth="1"/>
-    <col min="4" max="8" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" customWidth="1"/>
+    <col min="4" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13180,9 +13261,9 @@
   <conditionalFormatting sqref="C3:H12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13195,21 +13276,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" customWidth="1"/>
-    <col min="4" max="8" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" customWidth="1"/>
+    <col min="4" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13635,9 +13716,9 @@
   <conditionalFormatting sqref="C2:C10">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13647,9 +13728,9 @@
   <conditionalFormatting sqref="C2:H10">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13659,9 +13740,9 @@
   <conditionalFormatting sqref="C11">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13671,9 +13752,9 @@
   <conditionalFormatting sqref="C11:H11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13683,9 +13764,9 @@
   <conditionalFormatting sqref="C2:H11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13698,14 +13779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1">
@@ -13917,14 +13998,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1">
@@ -14136,14 +14217,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G22:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1">
@@ -14403,14 +14484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1">
@@ -15143,16 +15224,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -16001,16 +16082,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">

--- a/音超福布斯.xlsx
+++ b/音超福布斯.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="881"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="881" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="forbs " sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">奖金分配45!$A$52:$S$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">奖金分配46!$A$52:$S$52</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="293">
   <si>
     <t>29届</t>
     <phoneticPr fontId="1"/>
@@ -2050,6 +2050,10 @@
   </si>
   <si>
     <t>磊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3064,8 +3068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -3075,7 +3079,7 @@
     <col min="3" max="10" width="5.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
     <col min="12" max="18" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.25" customWidth="1"/>
     <col min="20" max="20" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15714,8 +15718,8 @@
   </sheetPr>
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -15988,6 +15992,12 @@
       <c r="N12" s="91">
         <v>35</v>
       </c>
+      <c r="O12" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="Q12" t="s">
         <v>291</v>
       </c>
@@ -16024,6 +16034,12 @@
       <c r="N13" s="91">
         <v>25</v>
       </c>
+      <c r="O13" t="s">
+        <v>291</v>
+      </c>
+      <c r="P13" t="s">
+        <v>292</v>
+      </c>
       <c r="Q13" s="1" t="s">
         <v>290</v>
       </c>
@@ -16044,6 +16060,9 @@
       <c r="N14" s="91">
         <v>15</v>
       </c>
+      <c r="O14" t="s">
+        <v>289</v>
+      </c>
       <c r="Q14" t="s">
         <v>289</v>
       </c>
@@ -16054,7 +16073,7 @@
       </c>
       <c r="O16" s="60">
         <f>SUMIF($O$12:$R$14,N16,$K$12:$N$14)</f>
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:17">
@@ -16070,7 +16089,7 @@
       </c>
       <c r="O17" s="60">
         <f t="shared" ref="O17" si="5">SUMIF($O$12:$R$14,N17,$K$12:$N$14)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -16096,7 +16115,7 @@
       </c>
       <c r="O18" s="60">
         <f>SUMIF($O$12:$R$14,N18,$K$12:$N$14)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:17">
@@ -16124,7 +16143,7 @@
       </c>
       <c r="O19" s="60">
         <f>SUMIF($O$12:$R$14,N19,$K$12:$N$14)</f>
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:17">
@@ -16359,11 +16378,11 @@
       </c>
       <c r="J33" s="29">
         <f>IFERROR(VLOOKUP(B33,$N$16:$O$23,2,FALSE),0)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K33" s="29">
         <f t="shared" ref="K33:K39" si="10">SUM(I33:J33)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O33" s="43"/>
     </row>
@@ -16399,11 +16418,11 @@
       </c>
       <c r="J34" s="29">
         <f t="shared" ref="J34:J39" si="15">IFERROR(VLOOKUP(B34,$N$16:$O$23,2,FALSE),0)</f>
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="K34" s="29">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="N34" s="58"/>
       <c r="O34" s="24"/>
@@ -16440,11 +16459,11 @@
       </c>
       <c r="J35" s="29">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K35" s="29">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N35" s="58"/>
       <c r="O35" s="23"/>
@@ -16563,11 +16582,11 @@
       </c>
       <c r="J38" s="29">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="K38" s="29">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N38" s="58"/>
       <c r="O38" s="24"/>

--- a/音超福布斯.xlsx
+++ b/音超福布斯.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="293">
   <si>
     <t>29届</t>
     <phoneticPr fontId="1"/>
@@ -2356,7 +2356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2636,9 +2636,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2653,6 +2650,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2728,7 +2734,7 @@
         <xdr:cNvPr id="2" name="四角形吹き出し 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4283,23 +4289,23 @@
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="27"/>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95" t="s">
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="96" t="s">
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="96" t="s">
+      <c r="J29" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="96" t="s">
+      <c r="K29" s="95" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4323,9 +4329,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="2"/>
@@ -4350,9 +4356,9 @@
       <c r="H31" s="3">
         <v>11</v>
       </c>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
       <c r="M31" t="s">
         <v>71</v>
       </c>
@@ -5183,23 +5189,23 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="27"/>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95" t="s">
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="96" t="s">
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="96" t="s">
+      <c r="J29" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="96" t="s">
+      <c r="K29" s="95" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5223,9 +5229,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="2"/>
@@ -5250,9 +5256,9 @@
       <c r="H31" s="3">
         <v>13</v>
       </c>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="2" t="s">
@@ -5948,23 +5954,23 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="27"/>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95" t="s">
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="96" t="s">
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="96" t="s">
+      <c r="J29" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="96" t="s">
+      <c r="K29" s="95" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5988,9 +5994,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="2"/>
@@ -6015,9 +6021,9 @@
       <c r="H31" s="3">
         <v>18</v>
       </c>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="2" t="s">
@@ -6677,23 +6683,23 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="27"/>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95" t="s">
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="96" t="s">
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="96" t="s">
+      <c r="J29" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="96" t="s">
+      <c r="K29" s="95" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6717,9 +6723,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="2"/>
@@ -6744,9 +6750,9 @@
       <c r="H31" s="3">
         <v>19</v>
       </c>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="2" t="s">
@@ -7512,23 +7518,23 @@
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="27"/>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95" t="s">
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="96" t="s">
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="96" t="s">
+      <c r="J29" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="96" t="s">
+      <c r="K29" s="95" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7552,9 +7558,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" s="2"/>
@@ -7579,9 +7585,9 @@
       <c r="H31" s="3">
         <v>14</v>
       </c>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="26" t="s">
@@ -8538,23 +8544,23 @@
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="27"/>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95" t="s">
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="96" t="s">
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="96" t="s">
+      <c r="J29" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="96" t="s">
+      <c r="K29" s="95" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8578,9 +8584,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
     </row>
     <row r="31" spans="2:20">
       <c r="B31" s="2"/>
@@ -8605,9 +8611,9 @@
       <c r="H31" s="3">
         <v>17</v>
       </c>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
     </row>
     <row r="32" spans="2:20">
       <c r="B32" s="26" t="s">
@@ -9650,23 +9656,23 @@
     </row>
     <row r="29" spans="1:15">
       <c r="B29" s="27"/>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95" t="s">
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="96" t="s">
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="96" t="s">
+      <c r="J29" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="96" t="s">
+      <c r="K29" s="95" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9690,9 +9696,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
     </row>
     <row r="31" spans="1:15">
       <c r="B31" s="2"/>
@@ -9711,9 +9717,9 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32">
@@ -10640,23 +10646,23 @@
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="27"/>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95" t="s">
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="96" t="s">
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="96" t="s">
+      <c r="J29" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="96" t="s">
+      <c r="K29" s="95" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10680,9 +10686,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="2"/>
@@ -10707,9 +10713,9 @@
       <c r="H31" s="3">
         <v>17</v>
       </c>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="26" t="s">
@@ -11574,23 +11580,23 @@
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="27"/>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95" t="s">
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="96" t="s">
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="96" t="s">
+      <c r="J29" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="96" t="s">
+      <c r="K29" s="95" t="s">
         <v>5</v>
       </c>
     </row>
@@ -11614,9 +11620,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
       <c r="M30" t="s">
         <v>232</v>
       </c>
@@ -11644,9 +11650,9 @@
       <c r="H31" s="3">
         <v>15</v>
       </c>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="26" t="s">
@@ -12765,23 +12771,23 @@
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="27"/>
-      <c r="C30" s="94" t="s">
+      <c r="C30" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="95" t="s">
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="96" t="s">
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="96" t="s">
+      <c r="J30" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="96" t="s">
+      <c r="K30" s="95" t="s">
         <v>5</v>
       </c>
     </row>
@@ -12797,9 +12803,9 @@
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="2"/>
@@ -12820,9 +12826,9 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="26" t="s">
@@ -14225,23 +14231,23 @@
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="27"/>
-      <c r="C30" s="94" t="s">
+      <c r="C30" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="95" t="s">
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="96" t="s">
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="96" t="s">
+      <c r="J30" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="96" t="s">
+      <c r="K30" s="95" t="s">
         <v>5</v>
       </c>
       <c r="N30" s="78" t="s">
@@ -14260,9 +14266,9 @@
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="2"/>
@@ -14283,9 +14289,9 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33">
@@ -15718,8 +15724,8 @@
   </sheetPr>
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -16063,6 +16069,9 @@
       <c r="O14" t="s">
         <v>289</v>
       </c>
+      <c r="P14" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="Q14" t="s">
         <v>289</v>
       </c>
@@ -16105,11 +16114,11 @@
       <c r="J18" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="K18" s="74">
+      <c r="K18" s="98">
         <f>SUM(K12:K14)</f>
         <v>54</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="99"/>
       <c r="N18" s="26" t="s">
         <v>20</v>
       </c>
@@ -16133,11 +16142,11 @@
       <c r="J19" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="K19" s="74">
+      <c r="K19" s="98">
         <f>SUM(L12:L14)</f>
         <v>45</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="99"/>
       <c r="N19" s="2" t="s">
         <v>23</v>
       </c>
@@ -16161,17 +16170,17 @@
       <c r="J20" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="K20" s="74">
+      <c r="K20" s="98">
         <f>SUM(M12:M14)</f>
         <v>39</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="99"/>
       <c r="N20" s="60" t="s">
         <v>22</v>
       </c>
       <c r="O20" s="60">
         <f>SUMIF($O$12:$R$14,N20,$K$12:$N$14)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:17">
@@ -16189,11 +16198,11 @@
       <c r="J21" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="K21" s="93">
+      <c r="K21" s="100">
         <f>SUM(N12:N14)</f>
         <v>75</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="99">
         <v>37</v>
       </c>
       <c r="N21" s="78" t="s">
@@ -16287,23 +16296,23 @@
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="27"/>
-      <c r="C30" s="94" t="s">
+      <c r="C30" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="95" t="s">
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="96" t="s">
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="96" t="s">
+      <c r="J30" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="96" t="s">
+      <c r="K30" s="95" t="s">
         <v>5</v>
       </c>
     </row>
@@ -16319,9 +16328,9 @@
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="2"/>
@@ -16342,9 +16351,9 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33">
@@ -16541,11 +16550,11 @@
       </c>
       <c r="J37" s="29">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K37" s="29">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N37" s="58"/>
       <c r="O37" s="24"/>
@@ -17819,23 +17828,23 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="27"/>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95" t="s">
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="96" t="s">
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="96" t="s">
+      <c r="J29" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="96" t="s">
+      <c r="K29" s="95" t="s">
         <v>5</v>
       </c>
     </row>
@@ -17859,9 +17868,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="2"/>
@@ -17886,9 +17895,9 @@
       <c r="H31" s="3">
         <v>17</v>
       </c>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="2" t="s">

--- a/音超福布斯.xlsx
+++ b/音超福布斯.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="881" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="881" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="forbs " sheetId="8" r:id="rId1"/>
@@ -29,12 +29,12 @@
     <sheet name="奖金分配45" sheetId="24" state="hidden" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'forbs '!$A$17:$U$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'forbs '!$A$17:$V$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">奖金分配44!$A$51:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">奖金分配45!$A$52:$S$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">奖金分配46!$A$52:$S$52</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="293">
   <si>
     <t>29届</t>
     <phoneticPr fontId="1"/>
@@ -2636,6 +2636,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2650,15 +2659,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3072,24 +3072,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD26"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" customWidth="1"/>
-    <col min="3" max="10" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.25" customWidth="1"/>
-    <col min="20" max="20" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.25" customWidth="1"/>
+    <col min="21" max="21" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="B1" s="15" t="s">
         <v>134</v>
       </c>
@@ -3100,7 +3099,7 @@
         <v>40</v>
       </c>
       <c r="E1" s="46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F1" s="46">
         <v>30</v>
@@ -3115,9 +3114,9 @@
         <v>30</v>
       </c>
       <c r="J1" s="46">
-        <v>25</v>
-      </c>
-      <c r="K1" s="47">
+        <v>30</v>
+      </c>
+      <c r="K1" s="46">
         <v>25</v>
       </c>
       <c r="L1" s="47">
@@ -3130,79 +3129,85 @@
         <v>25</v>
       </c>
       <c r="O1" s="47">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P1" s="47">
         <v>20</v>
       </c>
-      <c r="Q1" s="23"/>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="Q1" s="47">
+        <v>20</v>
+      </c>
+      <c r="R1" s="23"/>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="21"/>
       <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="L2" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="M2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="N2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="O2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="P2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="Q2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="R2" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="T2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="U2" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="29">
-        <f>SUM(C3:P3)</f>
+        <f>SUM(C3:Q3)</f>
         <v>251</v>
       </c>
       <c r="C3" s="35"/>
@@ -3212,41 +3217,41 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
-      <c r="J3" s="35">
+      <c r="J3" s="35"/>
+      <c r="K3" s="35">
         <v>51</v>
       </c>
-      <c r="K3" s="35">
+      <c r="L3" s="35">
         <v>39</v>
       </c>
-      <c r="L3" s="35">
+      <c r="M3" s="35">
         <v>36</v>
       </c>
-      <c r="M3" s="35">
+      <c r="N3" s="35">
         <v>59</v>
       </c>
-      <c r="N3" s="35">
+      <c r="O3" s="35">
         <v>22</v>
       </c>
-      <c r="O3" s="32">
+      <c r="P3" s="32">
         <v>26</v>
       </c>
-      <c r="P3" s="18">
+      <c r="Q3" s="18">
         <v>18</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="20">
-        <f>COUNTA(C3:P3)</f>
+      <c r="R3" s="44"/>
+      <c r="S3" s="20">
+        <f>COUNTA(C3:Q3)</f>
         <v>7</v>
       </c>
-      <c r="S3" s="28">
-        <f>B3-IF(ISBLANK(C3),0,C$1)-IF(ISBLANK(D3),0,D$1)-IF(ISBLANK(E3),0,E$1)-IF(ISBLANK(F3),0,F$1)-IF(ISBLANK(G3),0,G$1)-IF(ISBLANK(H3),0,H$1)-IF(ISBLANK(I3),0,I$1)-IF(ISBLANK(J3),0,J$1)-IF(ISBLANK(K3),0,K$1)-IF(ISBLANK(L3),0,L$1)-IF(ISBLANK(M3),0,M$1)-IF(ISBLANK(N3),0,N$1)-IF(ISBLANK(O3),0,O$1)-IF(ISBLANK(P3),0,P$1)-Q3</f>
+      <c r="T3" s="28">
+        <f>B3-IF(ISBLANK(C3),0,C$1)-IF(ISBLANK(D3),0,D$1)-IF(ISBLANK(E3),0,E$1)-IF(ISBLANK(F3),0,F$1)-IF(ISBLANK(G3),0,G$1)-IF(ISBLANK(H3),0,H$1)-IF(ISBLANK(I3),0,I$1)-IF(ISBLANK(J3),0,J$1)-IF(ISBLANK(K3),0,K$1)-IF(ISBLANK(L3),0,L$1)-IF(ISBLANK(M3),0,M$1)-IF(ISBLANK(N3),0,N$1)-IF(ISBLANK(O3),0,O$1)-IF(ISBLANK(P3),0,P$1)-IF(ISBLANK(Q3),0,Q$1)-R3</f>
         <v>86</v>
       </c>
-      <c r="T3" s="30">
-        <f>IFERROR(S3/R3,"")</f>
+      <c r="U3" s="30">
+        <f t="shared" ref="U3:U13" si="0">IFERROR(T3/S3,"")</f>
         <v>12.285714285714286</v>
       </c>
-      <c r="U3" s="72"/>
       <c r="V3" s="72"/>
       <c r="W3" s="72"/>
       <c r="X3" s="72"/>
@@ -3256,73 +3261,76 @@
       <c r="AB3" s="72"/>
       <c r="AC3" s="72"/>
       <c r="AD3" s="72"/>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3" s="72"/>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="29">
-        <f t="shared" ref="B4:B12" si="0">SUM(C4:P4)</f>
-        <v>511</v>
+        <f t="shared" ref="B4:B13" si="1">SUM(C4:Q4)</f>
+        <v>592</v>
       </c>
       <c r="C4" s="35">
+        <v>81</v>
+      </c>
+      <c r="D4" s="35">
         <v>46</v>
       </c>
-      <c r="D4" s="35">
+      <c r="E4" s="35">
         <v>75</v>
       </c>
-      <c r="E4" s="35">
+      <c r="F4" s="35">
         <v>42</v>
       </c>
-      <c r="F4" s="35">
+      <c r="G4" s="35">
         <v>33</v>
       </c>
-      <c r="G4" s="35">
+      <c r="H4" s="35">
         <v>42</v>
       </c>
-      <c r="H4" s="35">
+      <c r="I4" s="35">
         <v>34</v>
       </c>
-      <c r="I4" s="35">
+      <c r="J4" s="35">
         <v>32</v>
       </c>
-      <c r="J4" s="35">
+      <c r="K4" s="35">
         <v>51</v>
       </c>
-      <c r="K4" s="35">
+      <c r="L4" s="35">
         <v>9</v>
       </c>
-      <c r="L4" s="35">
+      <c r="M4" s="35">
         <v>35</v>
       </c>
-      <c r="M4" s="35">
+      <c r="N4" s="35">
         <v>26</v>
       </c>
-      <c r="N4" s="35">
+      <c r="O4" s="35">
         <v>33</v>
       </c>
-      <c r="O4" s="32">
+      <c r="P4" s="32">
         <v>35</v>
       </c>
-      <c r="P4" s="18">
+      <c r="Q4" s="18">
         <v>18</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="R4" s="44">
         <v>5</v>
       </c>
-      <c r="R4" s="20">
-        <f t="shared" ref="R4:R12" si="1">COUNTA(C4:P4)</f>
-        <v>14</v>
-      </c>
-      <c r="S4" s="28">
-        <f t="shared" ref="S4:S12" si="2">B4-IF(ISBLANK(C4),0,C$1)-IF(ISBLANK(D4),0,D$1)-IF(ISBLANK(E4),0,E$1)-IF(ISBLANK(F4),0,F$1)-IF(ISBLANK(G4),0,G$1)-IF(ISBLANK(H4),0,H$1)-IF(ISBLANK(I4),0,I$1)-IF(ISBLANK(J4),0,J$1)-IF(ISBLANK(K4),0,K$1)-IF(ISBLANK(L4),0,L$1)-IF(ISBLANK(M4),0,M$1)-IF(ISBLANK(N4),0,N$1)-IF(ISBLANK(O4),0,O$1)-IF(ISBLANK(P4),0,P$1)-Q4</f>
-        <v>111</v>
-      </c>
-      <c r="T4" s="30">
-        <f>IFERROR(S4/R4,"")</f>
-        <v>7.9285714285714288</v>
-      </c>
-      <c r="U4" s="72"/>
+      <c r="S4" s="20">
+        <f t="shared" ref="S4:S13" si="2">COUNTA(C4:Q4)</f>
+        <v>15</v>
+      </c>
+      <c r="T4" s="28">
+        <f t="shared" ref="T4:T13" si="3">B4-IF(ISBLANK(C4),0,C$1)-IF(ISBLANK(D4),0,D$1)-IF(ISBLANK(E4),0,E$1)-IF(ISBLANK(F4),0,F$1)-IF(ISBLANK(G4),0,G$1)-IF(ISBLANK(H4),0,H$1)-IF(ISBLANK(I4),0,I$1)-IF(ISBLANK(J4),0,J$1)-IF(ISBLANK(K4),0,K$1)-IF(ISBLANK(L4),0,L$1)-IF(ISBLANK(M4),0,M$1)-IF(ISBLANK(N4),0,N$1)-IF(ISBLANK(O4),0,O$1)-IF(ISBLANK(P4),0,P$1)-IF(ISBLANK(Q4),0,Q$1)-R4</f>
+        <v>152</v>
+      </c>
+      <c r="U4" s="30">
+        <f t="shared" si="0"/>
+        <v>10.133333333333333</v>
+      </c>
       <c r="V4" s="72"/>
       <c r="W4" s="72"/>
       <c r="X4" s="72"/>
@@ -3332,73 +3340,76 @@
       <c r="AB4" s="72"/>
       <c r="AC4" s="72"/>
       <c r="AD4" s="72"/>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AE4" s="72"/>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="29">
-        <f t="shared" ref="B5" si="3">SUM(C5:P5)</f>
-        <v>427</v>
+        <f t="shared" si="1"/>
+        <v>506</v>
       </c>
       <c r="C5" s="35">
         <v>79</v>
       </c>
       <c r="D5" s="35">
+        <v>79</v>
+      </c>
+      <c r="E5" s="35">
         <v>54</v>
       </c>
-      <c r="E5" s="35">
+      <c r="F5" s="35">
         <v>36</v>
       </c>
-      <c r="F5" s="35">
+      <c r="G5" s="35">
         <v>24</v>
       </c>
-      <c r="G5" s="35">
+      <c r="H5" s="35">
         <v>8</v>
       </c>
-      <c r="H5" s="35">
+      <c r="I5" s="35">
         <v>17</v>
       </c>
-      <c r="I5" s="35">
+      <c r="J5" s="35">
         <v>29</v>
       </c>
-      <c r="J5" s="35">
+      <c r="K5" s="35">
         <v>10</v>
       </c>
-      <c r="K5" s="35">
+      <c r="L5" s="35">
         <v>27</v>
       </c>
-      <c r="L5" s="35">
+      <c r="M5" s="35">
         <v>36</v>
       </c>
-      <c r="M5" s="35">
+      <c r="N5" s="35">
         <v>22</v>
       </c>
-      <c r="N5" s="35">
+      <c r="O5" s="35">
         <v>41</v>
       </c>
-      <c r="O5" s="32">
+      <c r="P5" s="32">
         <v>8</v>
       </c>
-      <c r="P5" s="18">
+      <c r="Q5" s="18">
         <v>36</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="R5" s="44">
         <v>10</v>
       </c>
-      <c r="R5" s="20">
-        <f t="shared" ref="R5" si="4">COUNTA(C5:P5)</f>
-        <v>14</v>
-      </c>
-      <c r="S5" s="28">
-        <f t="shared" ref="S5" si="5">B5-IF(ISBLANK(C5),0,C$1)-IF(ISBLANK(D5),0,D$1)-IF(ISBLANK(E5),0,E$1)-IF(ISBLANK(F5),0,F$1)-IF(ISBLANK(G5),0,G$1)-IF(ISBLANK(H5),0,H$1)-IF(ISBLANK(I5),0,I$1)-IF(ISBLANK(J5),0,J$1)-IF(ISBLANK(K5),0,K$1)-IF(ISBLANK(L5),0,L$1)-IF(ISBLANK(M5),0,M$1)-IF(ISBLANK(N5),0,N$1)-IF(ISBLANK(O5),0,O$1)-IF(ISBLANK(P5),0,P$1)-Q5</f>
-        <v>22</v>
-      </c>
-      <c r="T5" s="30">
-        <f>IFERROR(S5/R5,"")</f>
-        <v>1.5714285714285714</v>
-      </c>
-      <c r="U5" s="72"/>
+      <c r="S5" s="20">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="T5" s="28">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="U5" s="30">
+        <f t="shared" si="0"/>
+        <v>4.0666666666666664</v>
+      </c>
       <c r="V5" s="72"/>
       <c r="W5" s="72"/>
       <c r="X5" s="72"/>
@@ -3408,71 +3419,72 @@
       <c r="AB5" s="72"/>
       <c r="AC5" s="72"/>
       <c r="AD5" s="72"/>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AE5" s="72"/>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="24" t="s">
         <v>241</v>
       </c>
       <c r="B6" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>374</v>
       </c>
       <c r="C6" s="35"/>
-      <c r="D6" s="35">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35">
         <v>59</v>
       </c>
-      <c r="E6" s="35">
+      <c r="F6" s="35">
         <v>56</v>
       </c>
-      <c r="F6" s="35">
+      <c r="G6" s="35">
         <v>34</v>
       </c>
-      <c r="G6" s="35">
+      <c r="H6" s="35">
         <v>32</v>
       </c>
-      <c r="H6" s="35">
+      <c r="I6" s="35">
         <v>50</v>
       </c>
-      <c r="I6" s="35">
+      <c r="J6" s="35">
         <v>35</v>
-      </c>
-      <c r="J6" s="35">
-        <v>6</v>
       </c>
       <c r="K6" s="35">
         <v>6</v>
       </c>
       <c r="L6" s="35">
+        <v>6</v>
+      </c>
+      <c r="M6" s="35">
         <v>7</v>
       </c>
-      <c r="M6" s="35">
+      <c r="N6" s="35">
         <v>9</v>
       </c>
-      <c r="N6" s="35">
+      <c r="O6" s="35">
         <v>19</v>
       </c>
-      <c r="O6" s="32">
+      <c r="P6" s="32">
         <v>7</v>
       </c>
-      <c r="P6" s="18">
+      <c r="Q6" s="18">
         <v>54</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="R6" s="44">
         <v>25</v>
       </c>
-      <c r="R6" s="20">
-        <f t="shared" si="1"/>
+      <c r="S6" s="20">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="S6" s="28">
-        <f t="shared" si="2"/>
+      <c r="T6" s="28">
+        <f t="shared" si="3"/>
         <v>-6</v>
       </c>
-      <c r="T6" s="30">
-        <f t="shared" ref="T6:T12" si="6">IFERROR(S6/R6,"")</f>
+      <c r="U6" s="30">
+        <f t="shared" si="0"/>
         <v>-0.46153846153846156</v>
       </c>
-      <c r="U6" s="72"/>
       <c r="V6" s="72"/>
       <c r="W6" s="72"/>
       <c r="X6" s="72"/>
@@ -3482,69 +3494,70 @@
       <c r="AB6" s="72"/>
       <c r="AC6" s="72"/>
       <c r="AD6" s="72"/>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AE6" s="72"/>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="42" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>305</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
-      <c r="E7" s="35">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35">
         <v>9</v>
       </c>
-      <c r="F7" s="35">
+      <c r="G7" s="35">
         <v>37</v>
-      </c>
-      <c r="G7" s="35">
-        <v>36</v>
       </c>
       <c r="H7" s="35">
         <v>36</v>
       </c>
       <c r="I7" s="35">
+        <v>36</v>
+      </c>
+      <c r="J7" s="35">
         <v>24</v>
       </c>
-      <c r="J7" s="35">
+      <c r="K7" s="35">
         <v>33</v>
       </c>
-      <c r="K7" s="35">
+      <c r="L7" s="35">
         <v>25</v>
       </c>
-      <c r="L7" s="35">
+      <c r="M7" s="35">
         <v>19</v>
       </c>
-      <c r="M7" s="35">
+      <c r="N7" s="35">
         <v>14</v>
       </c>
-      <c r="N7" s="35">
+      <c r="O7" s="35">
         <v>38</v>
       </c>
-      <c r="O7" s="32">
+      <c r="P7" s="32">
         <v>16</v>
       </c>
-      <c r="P7" s="18">
+      <c r="Q7" s="18">
         <v>18</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="R7" s="44">
         <v>5</v>
       </c>
-      <c r="R7" s="20">
-        <f t="shared" si="1"/>
+      <c r="S7" s="20">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="S7" s="28">
-        <f t="shared" si="2"/>
+      <c r="T7" s="28">
+        <f t="shared" si="3"/>
         <v>-15</v>
       </c>
-      <c r="T7" s="30">
-        <f>IFERROR(S7/R7,"")</f>
+      <c r="U7" s="30">
+        <f t="shared" si="0"/>
         <v>-1.25</v>
       </c>
-      <c r="U7" s="72"/>
       <c r="V7" s="72"/>
       <c r="W7" s="72"/>
       <c r="X7" s="72"/>
@@ -3554,73 +3567,76 @@
       <c r="AB7" s="72"/>
       <c r="AC7" s="72"/>
       <c r="AD7" s="72"/>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AE7" s="72"/>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="42" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="29">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="C8" s="35">
+        <v>22</v>
+      </c>
+      <c r="D8" s="35">
+        <v>19</v>
+      </c>
+      <c r="E8" s="35">
+        <v>32</v>
+      </c>
+      <c r="F8" s="35">
+        <v>31</v>
+      </c>
+      <c r="G8" s="35">
+        <v>13</v>
+      </c>
+      <c r="H8" s="35">
+        <v>15</v>
+      </c>
+      <c r="I8" s="35">
+        <v>24</v>
+      </c>
+      <c r="J8" s="35">
+        <v>9</v>
+      </c>
+      <c r="K8" s="35">
+        <v>14</v>
+      </c>
+      <c r="L8" s="35">
+        <v>30</v>
+      </c>
+      <c r="M8" s="35">
+        <v>12</v>
+      </c>
+      <c r="N8" s="35">
+        <v>19</v>
+      </c>
+      <c r="O8" s="35">
+        <v>14</v>
+      </c>
+      <c r="P8" s="32">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>9</v>
+      </c>
+      <c r="R8" s="44">
+        <v>5</v>
+      </c>
+      <c r="S8" s="20">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="T8" s="28">
+        <f t="shared" si="3"/>
+        <v>-142</v>
+      </c>
+      <c r="U8" s="30">
         <f t="shared" si="0"/>
-        <v>276</v>
-      </c>
-      <c r="C8" s="35">
-        <v>19</v>
-      </c>
-      <c r="D8" s="35">
-        <v>32</v>
-      </c>
-      <c r="E8" s="35">
-        <v>31</v>
-      </c>
-      <c r="F8" s="35">
-        <v>13</v>
-      </c>
-      <c r="G8" s="35">
-        <v>15</v>
-      </c>
-      <c r="H8" s="35">
-        <v>24</v>
-      </c>
-      <c r="I8" s="35">
-        <v>9</v>
-      </c>
-      <c r="J8" s="35">
-        <v>14</v>
-      </c>
-      <c r="K8" s="35">
-        <v>30</v>
-      </c>
-      <c r="L8" s="35">
-        <v>12</v>
-      </c>
-      <c r="M8" s="35">
-        <v>19</v>
-      </c>
-      <c r="N8" s="35">
-        <v>14</v>
-      </c>
-      <c r="O8" s="32">
-        <v>35</v>
-      </c>
-      <c r="P8" s="18">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="44">
-        <v>5</v>
-      </c>
-      <c r="R8" s="20">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="S8" s="28">
-        <f t="shared" si="2"/>
-        <v>-124</v>
-      </c>
-      <c r="T8" s="30">
-        <f>IFERROR(S8/R8,"")</f>
-        <v>-8.8571428571428577</v>
-      </c>
-      <c r="U8" s="72"/>
+        <v>-9.4666666666666668</v>
+      </c>
       <c r="V8" s="72"/>
       <c r="W8" s="72"/>
       <c r="X8" s="72"/>
@@ -3630,111 +3646,135 @@
       <c r="AB8" s="72"/>
       <c r="AC8" s="72"/>
       <c r="AD8" s="72"/>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="23" t="s">
-        <v>263</v>
+      <c r="AE8" s="72"/>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B9" s="29">
-        <f>SUM(C9:P9)</f>
+        <f t="shared" si="1"/>
+        <v>247</v>
+      </c>
+      <c r="C9" s="35">
+        <v>14</v>
+      </c>
+      <c r="D9" s="35">
+        <v>39</v>
+      </c>
+      <c r="E9" s="35">
+        <v>33</v>
+      </c>
+      <c r="F9" s="35">
+        <v>6</v>
+      </c>
+      <c r="G9" s="35">
+        <v>28</v>
+      </c>
+      <c r="H9" s="35">
+        <v>11</v>
+      </c>
+      <c r="I9" s="35">
+        <v>21</v>
+      </c>
+      <c r="J9" s="35">
+        <v>30</v>
+      </c>
+      <c r="K9" s="35">
+        <v>8</v>
+      </c>
+      <c r="L9" s="35">
+        <v>13</v>
+      </c>
+      <c r="M9" s="35">
+        <v>15</v>
+      </c>
+      <c r="N9" s="35">
+        <v>13</v>
+      </c>
+      <c r="O9" s="35">
+        <v>7</v>
+      </c>
+      <c r="P9" s="32">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>0</v>
+      </c>
+      <c r="R9" s="44">
+        <v>20</v>
+      </c>
+      <c r="S9" s="20">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="T9" s="28">
+        <f t="shared" si="3"/>
+        <v>-208</v>
+      </c>
+      <c r="U9" s="30">
+        <f t="shared" si="0"/>
+        <v>-13.866666666666667</v>
+      </c>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="29">
+        <f>SUM(C10:Q10)</f>
+        <v>102</v>
+      </c>
+      <c r="C10" s="35">
+        <v>46</v>
+      </c>
+      <c r="D10" s="35">
+        <v>45</v>
+      </c>
+      <c r="E10" s="35">
         <v>4</v>
       </c>
-      <c r="C9" s="35">
-        <v>4</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="20">
-        <f>COUNTA(C9:P9)</f>
-        <v>1</v>
-      </c>
-      <c r="S9" s="28">
-        <f>B9-15-IF(ISBLANK(D9),0,D$1)-IF(ISBLANK(E9),0,E$1)-IF(ISBLANK(F9),0,F$1)-IF(ISBLANK(G9),0,G$1)-IF(ISBLANK(H9),0,H$1)-IF(ISBLANK(I9),0,I$1)-IF(ISBLANK(J9),0,J$1)-IF(ISBLANK(K9),0,K$1)-IF(ISBLANK(L9),0,L$1)-IF(ISBLANK(M9),0,M$1)-IF(ISBLANK(N9),0,N$1)-IF(ISBLANK(O9),0,O$1)-IF(ISBLANK(P9),0,P$1)-Q9</f>
-        <v>-11</v>
-      </c>
-      <c r="T9" s="30">
-        <f>IFERROR(S9/R9,"")</f>
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="29">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35">
+        <v>7</v>
+      </c>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="18">
+        <v>0</v>
+      </c>
+      <c r="R10" s="44">
+        <v>12</v>
+      </c>
+      <c r="S10" s="20">
+        <f>COUNTA(C10:Q10)</f>
+        <v>5</v>
+      </c>
+      <c r="T10" s="28">
+        <f>B10-IF(ISBLANK(C10),0,C$1)-IF(ISBLANK(D10),0,D$1)-IF(ISBLANK(E10),0,E$1)-IF(ISBLANK(F10),0,F$1)-IF(ISBLANK(G10),0,G$1)-IF(ISBLANK(H10),0,H$1)-IF(ISBLANK(I10),0,I$1)-IF(ISBLANK(J10),0,J$1)-IF(ISBLANK(K10),0,K$1)-IF(ISBLANK(L10),0,L$1)-IF(ISBLANK(M10),0,M$1)-IF(ISBLANK(N10),0,N$1)-IF(ISBLANK(O10),0,O$1)-IF(ISBLANK(P10),0,P$1)-IF(ISBLANK(Q10),0,Q$1)-R10</f>
+        <v>-75</v>
+      </c>
+      <c r="U10" s="30">
         <f t="shared" si="0"/>
-        <v>233</v>
-      </c>
-      <c r="C10" s="35">
-        <v>39</v>
-      </c>
-      <c r="D10" s="35">
-        <v>33</v>
-      </c>
-      <c r="E10" s="35">
-        <v>6</v>
-      </c>
-      <c r="F10" s="35">
-        <v>28</v>
-      </c>
-      <c r="G10" s="35">
-        <v>11</v>
-      </c>
-      <c r="H10" s="35">
-        <v>21</v>
-      </c>
-      <c r="I10" s="35">
-        <v>30</v>
-      </c>
-      <c r="J10" s="35">
-        <v>8</v>
-      </c>
-      <c r="K10" s="35">
-        <v>13</v>
-      </c>
-      <c r="L10" s="35">
-        <v>15</v>
-      </c>
-      <c r="M10" s="35">
-        <v>13</v>
-      </c>
-      <c r="N10" s="35">
-        <v>7</v>
-      </c>
-      <c r="O10" s="32">
-        <v>9</v>
-      </c>
-      <c r="P10" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="44">
-        <v>20</v>
-      </c>
-      <c r="R10" s="20">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="S10" s="28">
-        <f t="shared" si="2"/>
-        <v>-182</v>
-      </c>
-      <c r="T10" s="30">
-        <f t="shared" si="6"/>
-        <v>-13</v>
-      </c>
-      <c r="U10" s="72"/>
+        <v>-15</v>
+      </c>
       <c r="V10" s="72"/>
       <c r="W10" s="72"/>
       <c r="X10" s="72"/>
@@ -3744,61 +3784,62 @@
       <c r="AB10" s="72"/>
       <c r="AC10" s="72"/>
       <c r="AD10" s="72"/>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AE10" s="72"/>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="24" t="s">
         <v>161</v>
       </c>
       <c r="B11" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="C11" s="35"/>
-      <c r="D11" s="35">
+      <c r="D11" s="35"/>
+      <c r="E11" s="35">
         <v>4</v>
       </c>
-      <c r="E11" s="35">
+      <c r="F11" s="35">
         <v>9</v>
       </c>
-      <c r="F11" s="35">
+      <c r="G11" s="35">
         <v>19</v>
       </c>
-      <c r="G11" s="35">
+      <c r="H11" s="35">
         <v>25</v>
       </c>
-      <c r="H11" s="35">
+      <c r="I11" s="35">
         <v>6</v>
       </c>
-      <c r="I11" s="35"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
-      <c r="N11" s="35">
+      <c r="N11" s="35"/>
+      <c r="O11" s="35">
         <v>6</v>
       </c>
-      <c r="O11" s="32">
+      <c r="P11" s="32">
         <v>16</v>
       </c>
-      <c r="P11" s="18">
+      <c r="Q11" s="18">
         <v>9</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="R11" s="44">
         <v>19</v>
       </c>
-      <c r="R11" s="20">
-        <f t="shared" si="1"/>
+      <c r="S11" s="20">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="S11" s="28">
-        <f t="shared" si="2"/>
+      <c r="T11" s="28">
+        <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="T11" s="30">
-        <f t="shared" si="6"/>
+      <c r="U11" s="30">
+        <f t="shared" si="0"/>
         <v>-18.75</v>
       </c>
-      <c r="U11" s="72"/>
       <c r="V11" s="72"/>
       <c r="W11" s="72"/>
       <c r="X11" s="72"/>
@@ -3808,17 +3849,18 @@
       <c r="AB11" s="72"/>
       <c r="AC11" s="72"/>
       <c r="AD11" s="72"/>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="24" t="s">
-        <v>29</v>
+      <c r="AE11" s="72"/>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="B12" s="29">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f>SUM(C12:Q12)</f>
+        <v>11</v>
       </c>
       <c r="C12" s="35">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D12" s="35">
         <v>4</v>
@@ -3828,55 +3870,42 @@
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="35">
-        <v>7</v>
-      </c>
+      <c r="J12" s="35"/>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
       <c r="N12" s="35"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="44">
-        <v>12</v>
-      </c>
-      <c r="R12" s="20">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="S12" s="28">
-        <f t="shared" si="2"/>
-        <v>-81</v>
-      </c>
-      <c r="T12" s="30">
-        <f t="shared" si="6"/>
-        <v>-20.25</v>
-      </c>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="72"/>
-      <c r="AA12" s="72"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="O12" s="35"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="20">
+        <f>COUNTA(C12:Q12)</f>
+        <v>2</v>
+      </c>
+      <c r="T12" s="28">
+        <f>B12-IF(ISBLANK(C12),0,C$1)-IF(ISBLANK(D12),0,D$1)-IF(ISBLANK(E12),0,E$1)-IF(ISBLANK(F12),0,F$1)-IF(ISBLANK(G12),0,G$1)-IF(ISBLANK(H12),0,H$1)-IF(ISBLANK(I12),0,I$1)-IF(ISBLANK(J12),0,J$1)-IF(ISBLANK(K12),0,K$1)-IF(ISBLANK(L12),0,L$1)-IF(ISBLANK(M12),0,M$1)-IF(ISBLANK(N12),0,N$1)-IF(ISBLANK(O12),0,O$1)-IF(ISBLANK(P12),0,P$1)-IF(ISBLANK(Q12),0,Q$1)-R12</f>
+        <v>-69</v>
+      </c>
+      <c r="U12" s="30">
+        <f t="shared" si="0"/>
+        <v>-34.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="23" t="s">
         <v>261</v>
       </c>
       <c r="B13" s="29">
-        <f t="shared" ref="B13" si="7">SUM(C13:P13)</f>
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C13" s="35">
+        <v>1</v>
+      </c>
+      <c r="D13" s="35">
         <v>2</v>
       </c>
-      <c r="C13" s="35">
-        <v>2</v>
-      </c>
-      <c r="D13" s="35"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
@@ -3887,73 +3916,74 @@
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="20">
-        <f t="shared" ref="R13" si="8">COUNTA(C13:P13)</f>
-        <v>1</v>
-      </c>
-      <c r="S13" s="28">
-        <f t="shared" ref="S13" si="9">B13-IF(ISBLANK(C13),0,C$1)-IF(ISBLANK(D13),0,D$1)-IF(ISBLANK(E13),0,E$1)-IF(ISBLANK(F13),0,F$1)-IF(ISBLANK(G13),0,G$1)-IF(ISBLANK(H13),0,H$1)-IF(ISBLANK(I13),0,I$1)-IF(ISBLANK(J13),0,J$1)-IF(ISBLANK(K13),0,K$1)-IF(ISBLANK(L13),0,L$1)-IF(ISBLANK(M13),0,M$1)-IF(ISBLANK(N13),0,N$1)-IF(ISBLANK(O13),0,O$1)-IF(ISBLANK(P13),0,P$1)-Q13</f>
-        <v>-38</v>
-      </c>
-      <c r="T13" s="30">
-        <f>IFERROR(S13/R13,"")</f>
-        <v>-38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="O13" s="35"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T13" s="28">
+        <f t="shared" si="3"/>
+        <v>-77</v>
+      </c>
+      <c r="U13" s="30">
+        <f t="shared" si="0"/>
+        <v>-38.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="43"/>
-      <c r="U14" s="23"/>
-      <c r="W14" s="43"/>
-      <c r="Y14" s="57"/>
+      <c r="V14" s="23"/>
+      <c r="X14" s="43"/>
       <c r="Z14" s="57"/>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="K15" s="23"/>
-      <c r="M15" s="24"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="24"/>
-      <c r="U15" s="23"/>
-      <c r="W15" s="24"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="24"/>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="U16" s="23"/>
-      <c r="W16" s="42"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="7:26">
-      <c r="W17" s="23"/>
-      <c r="Y17" s="57"/>
-    </row>
-    <row r="18" spans="7:26">
-      <c r="W18" s="24"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="7:26">
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="7:26">
-      <c r="O20" s="57"/>
-      <c r="P20" s="24"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="24"/>
-    </row>
-    <row r="26" spans="7:26">
-      <c r="G26" s="1"/>
+      <c r="AA14" s="57"/>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="L15" s="23"/>
+      <c r="N15" s="24"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="24"/>
+      <c r="V15" s="23"/>
+      <c r="X15" s="24"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="24"/>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="V16" s="23"/>
+      <c r="X16" s="42"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="8:27">
+      <c r="X17" s="23"/>
+      <c r="Z17" s="57"/>
+    </row>
+    <row r="18" spans="8:27">
+      <c r="X18" s="24"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="8:27">
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="8:27">
+      <c r="P20" s="57"/>
+      <c r="Q20" s="24"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="24"/>
+    </row>
+    <row r="26" spans="8:27">
+      <c r="H26" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A31:L39">
     <sortCondition descending="1" ref="B31:B39"/>
   </sortState>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C3:P13">
+  <conditionalFormatting sqref="C3:Q13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -4289,23 +4319,23 @@
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="27"/>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="94" t="s">
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="95" t="s">
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="95" t="s">
+      <c r="J29" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="95" t="s">
+      <c r="K29" s="98" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4329,9 +4359,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="2"/>
@@ -4356,9 +4386,9 @@
       <c r="H31" s="3">
         <v>11</v>
       </c>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
       <c r="M31" t="s">
         <v>71</v>
       </c>
@@ -5189,23 +5219,23 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="27"/>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="94" t="s">
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="95" t="s">
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="95" t="s">
+      <c r="J29" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="95" t="s">
+      <c r="K29" s="98" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5229,9 +5259,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="2"/>
@@ -5256,9 +5286,9 @@
       <c r="H31" s="3">
         <v>13</v>
       </c>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="2" t="s">
@@ -5954,23 +5984,23 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="27"/>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="94" t="s">
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="95" t="s">
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="95" t="s">
+      <c r="J29" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="95" t="s">
+      <c r="K29" s="98" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5994,9 +6024,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="2"/>
@@ -6021,9 +6051,9 @@
       <c r="H31" s="3">
         <v>18</v>
       </c>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="2" t="s">
@@ -6683,23 +6713,23 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="27"/>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="94" t="s">
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="95" t="s">
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="95" t="s">
+      <c r="J29" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="95" t="s">
+      <c r="K29" s="98" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6723,9 +6753,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="2"/>
@@ -6750,9 +6780,9 @@
       <c r="H31" s="3">
         <v>19</v>
       </c>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="2" t="s">
@@ -7518,23 +7548,23 @@
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="27"/>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="94" t="s">
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="95" t="s">
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="95" t="s">
+      <c r="J29" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="95" t="s">
+      <c r="K29" s="98" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7558,9 +7588,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" s="2"/>
@@ -7585,9 +7615,9 @@
       <c r="H31" s="3">
         <v>14</v>
       </c>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="26" t="s">
@@ -8544,23 +8574,23 @@
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="27"/>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="94" t="s">
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="95" t="s">
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="95" t="s">
+      <c r="J29" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="95" t="s">
+      <c r="K29" s="98" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8584,9 +8614,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
     </row>
     <row r="31" spans="2:20">
       <c r="B31" s="2"/>
@@ -8611,9 +8641,9 @@
       <c r="H31" s="3">
         <v>17</v>
       </c>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
     </row>
     <row r="32" spans="2:20">
       <c r="B32" s="26" t="s">
@@ -9656,23 +9686,23 @@
     </row>
     <row r="29" spans="1:15">
       <c r="B29" s="27"/>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="94" t="s">
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="95" t="s">
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="95" t="s">
+      <c r="J29" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="95" t="s">
+      <c r="K29" s="98" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9696,9 +9726,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
     </row>
     <row r="31" spans="1:15">
       <c r="B31" s="2"/>
@@ -9717,9 +9747,9 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32">
@@ -10646,23 +10676,23 @@
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="27"/>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="94" t="s">
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="95" t="s">
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="95" t="s">
+      <c r="J29" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="95" t="s">
+      <c r="K29" s="98" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10686,9 +10716,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="2"/>
@@ -10713,9 +10743,9 @@
       <c r="H31" s="3">
         <v>17</v>
       </c>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="26" t="s">
@@ -11580,23 +11610,23 @@
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="27"/>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="94" t="s">
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="95" t="s">
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="95" t="s">
+      <c r="J29" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="95" t="s">
+      <c r="K29" s="98" t="s">
         <v>5</v>
       </c>
     </row>
@@ -11620,9 +11650,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
       <c r="M30" t="s">
         <v>232</v>
       </c>
@@ -11650,9 +11680,9 @@
       <c r="H31" s="3">
         <v>15</v>
       </c>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="26" t="s">
@@ -12771,23 +12801,23 @@
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="27"/>
-      <c r="C30" s="93" t="s">
+      <c r="C30" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="94" t="s">
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="95" t="s">
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="95" t="s">
+      <c r="J30" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="95" t="s">
+      <c r="K30" s="98" t="s">
         <v>5</v>
       </c>
     </row>
@@ -12803,9 +12833,9 @@
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="2"/>
@@ -12826,9 +12856,9 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="26" t="s">
@@ -13269,8 +13299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="142" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="142" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -13612,10 +13642,12 @@
         <v>264</v>
       </c>
       <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
+      <c r="C24" s="41">
+        <v>43257</v>
+      </c>
       <c r="D24" s="36">
         <f t="shared" ref="D24" si="4">C24-B24</f>
-        <v>0</v>
+        <v>43257</v>
       </c>
     </row>
   </sheetData>
@@ -14231,23 +14263,23 @@
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="27"/>
-      <c r="C30" s="93" t="s">
+      <c r="C30" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="94" t="s">
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="95" t="s">
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="95" t="s">
+      <c r="J30" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="95" t="s">
+      <c r="K30" s="98" t="s">
         <v>5</v>
       </c>
       <c r="N30" s="78" t="s">
@@ -14266,9 +14298,9 @@
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="2"/>
@@ -14289,9 +14321,9 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33">
@@ -15724,8 +15756,8 @@
   </sheetPr>
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -16007,6 +16039,9 @@
       <c r="Q12" t="s">
         <v>291</v>
       </c>
+      <c r="R12" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="13" spans="1:19">
       <c r="B13" s="5">
@@ -16049,6 +16084,9 @@
       <c r="Q13" s="1" t="s">
         <v>290</v>
       </c>
+      <c r="R13" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="14" spans="1:19">
       <c r="J14" s="2" t="s">
@@ -16075,14 +16113,17 @@
       <c r="Q14" t="s">
         <v>289</v>
       </c>
+      <c r="R14" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="16" spans="1:19">
       <c r="N16" s="60" t="s">
         <v>15</v>
       </c>
       <c r="O16" s="60">
-        <f>SUMIF($O$12:$R$14,N16,$K$12:$N$14)</f>
-        <v>59</v>
+        <f t="shared" ref="O16:O22" si="5">SUMIF($O$12:$R$14,N16,$K$12:$N$14)</f>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:17">
@@ -16097,8 +16138,8 @@
         <v>18</v>
       </c>
       <c r="O17" s="60">
-        <f t="shared" ref="O17" si="5">SUMIF($O$12:$R$14,N17,$K$12:$N$14)</f>
-        <v>36</v>
+        <f t="shared" si="5"/>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -16114,16 +16155,16 @@
       <c r="J18" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="K18" s="98">
+      <c r="K18" s="93">
         <f>SUM(K12:K14)</f>
         <v>54</v>
       </c>
-      <c r="L18" s="99"/>
+      <c r="L18" s="94"/>
       <c r="N18" s="26" t="s">
         <v>20</v>
       </c>
       <c r="O18" s="60">
-        <f>SUMIF($O$12:$R$14,N18,$K$12:$N$14)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -16142,17 +16183,17 @@
       <c r="J19" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="K19" s="98">
+      <c r="K19" s="93">
         <f>SUM(L12:L14)</f>
         <v>45</v>
       </c>
-      <c r="L19" s="99"/>
+      <c r="L19" s="94"/>
       <c r="N19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="O19" s="60">
-        <f>SUMIF($O$12:$R$14,N19,$K$12:$N$14)</f>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:17">
@@ -16170,16 +16211,16 @@
       <c r="J20" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="K20" s="98">
+      <c r="K20" s="93">
         <f>SUM(M12:M14)</f>
         <v>39</v>
       </c>
-      <c r="L20" s="99"/>
+      <c r="L20" s="94"/>
       <c r="N20" s="60" t="s">
         <v>22</v>
       </c>
       <c r="O20" s="60">
-        <f>SUMIF($O$12:$R$14,N20,$K$12:$N$14)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
@@ -16198,18 +16239,18 @@
       <c r="J21" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="K21" s="100">
+      <c r="K21" s="95">
         <f>SUM(N12:N14)</f>
         <v>75</v>
       </c>
-      <c r="L21" s="99">
+      <c r="L21" s="94">
         <v>37</v>
       </c>
       <c r="N21" s="78" t="s">
         <v>257</v>
       </c>
       <c r="O21" s="60">
-        <f>SUMIF($O$12:$R$14,N21,$K$12:$N$14)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16229,7 +16270,7 @@
         <v>273</v>
       </c>
       <c r="O22" s="48">
-        <f>SUMIF($O$12:$R$14,N22,$K$12:$N$14)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P22" s="57"/>
@@ -16296,23 +16337,23 @@
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="27"/>
-      <c r="C30" s="93" t="s">
+      <c r="C30" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="94" t="s">
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="95" t="s">
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="95" t="s">
+      <c r="J30" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="95" t="s">
+      <c r="K30" s="98" t="s">
         <v>5</v>
       </c>
     </row>
@@ -16328,15 +16369,15 @@
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="2"/>
       <c r="C32" s="3">
         <f>SUM(C33:C39)</f>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" ref="D32:E32" si="9">SUM(D33:D39)</f>
@@ -16351,9 +16392,9 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33">
@@ -16362,16 +16403,18 @@
       <c r="B33" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2">
+        <v>25</v>
+      </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
       </c>
-      <c r="F33" s="25" t="str">
+      <c r="F33" s="25">
         <f>IFERROR(F$32/$C$32*C33,"")</f>
-        <v/>
+        <v>7.7731092436974789</v>
       </c>
       <c r="G33" s="25" t="str">
         <f>IFERROR(G$32/$D$32*D33,"")</f>
@@ -16383,260 +16426,272 @@
       </c>
       <c r="I33" s="34">
         <f>SUM(F33:H33)</f>
-        <v>0</v>
+        <v>7.7731092436974789</v>
       </c>
       <c r="J33" s="29">
-        <f>IFERROR(VLOOKUP(B33,$N$16:$O$23,2,FALSE),0)</f>
-        <v>36</v>
+        <f t="shared" ref="J33:J39" si="10">IFERROR(VLOOKUP(B33,$N$16:$O$23,2,FALSE),0)</f>
+        <v>71</v>
       </c>
       <c r="K33" s="29">
-        <f t="shared" ref="K33:K39" si="10">SUM(I33:J33)</f>
-        <v>36</v>
+        <f t="shared" ref="K33:K39" si="11">SUM(I33:J33)</f>
+        <v>78.773109243697476</v>
       </c>
       <c r="O33" s="43"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B34" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2">
+        <v>24</v>
+      </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
       </c>
-      <c r="F34" s="25" t="str">
-        <f t="shared" ref="F34:F39" si="11">IFERROR(F$32/$C$32*C34,"")</f>
+      <c r="F34" s="25">
+        <f t="shared" ref="F34:F39" si="12">IFERROR(F$32/$C$32*C34,"")</f>
+        <v>7.46218487394958</v>
+      </c>
+      <c r="G34" s="25" t="str">
+        <f t="shared" ref="G34:G39" si="13">IFERROR(G$32/$D$32*D34,"")</f>
         <v/>
       </c>
-      <c r="G34" s="25" t="str">
-        <f t="shared" ref="G34:G39" si="12">IFERROR(G$32/$D$32*D34,"")</f>
+      <c r="H34" s="25" t="str">
+        <f t="shared" ref="H34:H39" si="14">IFERROR(H$32/$E$32*E34,"")</f>
         <v/>
       </c>
-      <c r="H34" s="25" t="str">
-        <f t="shared" ref="H34:H39" si="13">IFERROR(H$32/$E$32*E34,"")</f>
-        <v/>
-      </c>
       <c r="I34" s="34">
-        <f t="shared" ref="I34:I39" si="14">SUM(F34:H34)</f>
-        <v>0</v>
+        <f t="shared" ref="I34:I39" si="15">SUM(F34:H34)</f>
+        <v>7.46218487394958</v>
       </c>
       <c r="J34" s="29">
-        <f t="shared" ref="J34:J39" si="15">IFERROR(VLOOKUP(B34,$N$16:$O$23,2,FALSE),0)</f>
-        <v>59</v>
+        <f t="shared" si="10"/>
+        <v>74</v>
       </c>
       <c r="K34" s="29">
-        <f t="shared" si="10"/>
-        <v>59</v>
+        <f t="shared" si="11"/>
+        <v>81.462184873949582</v>
       </c>
       <c r="N34" s="58"/>
       <c r="O34" s="24"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2">
+        <v>23</v>
+      </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
       </c>
-      <c r="F35" s="25" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="F35" s="25">
+        <f t="shared" si="12"/>
+        <v>7.151260504201681</v>
       </c>
       <c r="G35" s="25" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H35" s="25" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="H35" s="25" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="I35" s="34">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>7.151260504201681</v>
       </c>
       <c r="J35" s="29">
-        <f t="shared" si="15"/>
-        <v>15</v>
-      </c>
-      <c r="K35" s="29">
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
+      <c r="K35" s="29">
+        <f t="shared" si="11"/>
+        <v>22.15126050420168</v>
+      </c>
       <c r="N35" s="58"/>
       <c r="O35" s="23"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B36" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2">
+        <v>22</v>
+      </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
       </c>
-      <c r="F36" s="25" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="F36" s="25">
+        <f t="shared" si="12"/>
+        <v>6.8403361344537821</v>
       </c>
       <c r="G36" s="25" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H36" s="25" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="H36" s="25" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="I36" s="34">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>6.8403361344537821</v>
       </c>
       <c r="J36" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K36" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>6.8403361344537821</v>
       </c>
       <c r="N36" s="58"/>
       <c r="O36" s="24"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2">
+        <v>15</v>
+      </c>
       <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
       </c>
-      <c r="F37" s="25" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="F37" s="25">
+        <f t="shared" si="12"/>
+        <v>4.6638655462184877</v>
       </c>
       <c r="G37" s="25" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H37" s="25" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="H37" s="25" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="I37" s="34">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.6638655462184877</v>
       </c>
       <c r="J37" s="29">
-        <f t="shared" si="15"/>
-        <v>9</v>
-      </c>
-      <c r="K37" s="29">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
+      <c r="K37" s="29">
+        <f t="shared" si="11"/>
+        <v>13.663865546218489</v>
+      </c>
       <c r="N37" s="58"/>
       <c r="O37" s="24"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2">
+        <v>8</v>
+      </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
       </c>
-      <c r="F38" s="25" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="F38" s="25">
+        <f t="shared" si="12"/>
+        <v>2.4873949579831933</v>
       </c>
       <c r="G38" s="25" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H38" s="25" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="H38" s="25" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="I38" s="34">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>2.4873949579831933</v>
       </c>
       <c r="J38" s="29">
-        <f t="shared" si="15"/>
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>44</v>
       </c>
       <c r="K38" s="29">
-        <f t="shared" si="10"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>46.487394957983192</v>
       </c>
       <c r="N38" s="58"/>
       <c r="O38" s="24"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
       </c>
-      <c r="F39" s="25" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="F39" s="25">
+        <f t="shared" si="12"/>
+        <v>0.62184873949579833</v>
       </c>
       <c r="G39" s="25" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H39" s="25" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="H39" s="25" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="I39" s="34">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>0.62184873949579833</v>
       </c>
       <c r="J39" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K39" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.62184873949579833</v>
       </c>
       <c r="N39" s="58"/>
       <c r="O39" s="24"/>
@@ -17828,23 +17883,23 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="27"/>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="94" t="s">
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="95" t="s">
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="95" t="s">
+      <c r="J29" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="95" t="s">
+      <c r="K29" s="98" t="s">
         <v>5</v>
       </c>
     </row>
@@ -17868,9 +17923,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="2"/>
@@ -17895,9 +17950,9 @@
       <c r="H31" s="3">
         <v>17</v>
       </c>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="2" t="s">

--- a/音超福布斯.xlsx
+++ b/音超福布斯.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="881" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="881" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="forbs " sheetId="8" r:id="rId1"/>
@@ -12,27 +12,29 @@
     <sheet name="forbs_bak2" sheetId="6" r:id="rId3"/>
     <sheet name="forbs_bak1" sheetId="1" r:id="rId4"/>
     <sheet name="奖金分配46" sheetId="25" r:id="rId5"/>
-    <sheet name="奖金分配" sheetId="2" state="hidden" r:id="rId6"/>
-    <sheet name="奖金分配32" sheetId="5" state="hidden" r:id="rId7"/>
-    <sheet name="奖金分配33" sheetId="9" state="hidden" r:id="rId8"/>
-    <sheet name="奖金分配34" sheetId="11" state="hidden" r:id="rId9"/>
-    <sheet name="奖金分配35" sheetId="12" state="hidden" r:id="rId10"/>
-    <sheet name="奖金分配36" sheetId="14" state="hidden" r:id="rId11"/>
-    <sheet name="奖金分配37" sheetId="15" state="hidden" r:id="rId12"/>
-    <sheet name="奖金分配38" sheetId="17" state="hidden" r:id="rId13"/>
-    <sheet name="奖金分配39" sheetId="18" state="hidden" r:id="rId14"/>
-    <sheet name="奖金分配40" sheetId="19" state="hidden" r:id="rId15"/>
-    <sheet name="奖金分配41" sheetId="20" state="hidden" r:id="rId16"/>
-    <sheet name="奖金分配42" sheetId="21" state="hidden" r:id="rId17"/>
-    <sheet name="奖金分配43" sheetId="22" state="hidden" r:id="rId18"/>
-    <sheet name="奖金分配44" sheetId="23" state="hidden" r:id="rId19"/>
-    <sheet name="奖金分配45" sheetId="24" state="hidden" r:id="rId20"/>
+    <sheet name="奖金分配47" sheetId="26" r:id="rId6"/>
+    <sheet name="奖金分配" sheetId="2" state="hidden" r:id="rId7"/>
+    <sheet name="奖金分配32" sheetId="5" state="hidden" r:id="rId8"/>
+    <sheet name="奖金分配33" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="奖金分配34" sheetId="11" state="hidden" r:id="rId10"/>
+    <sheet name="奖金分配35" sheetId="12" state="hidden" r:id="rId11"/>
+    <sheet name="奖金分配36" sheetId="14" state="hidden" r:id="rId12"/>
+    <sheet name="奖金分配37" sheetId="15" state="hidden" r:id="rId13"/>
+    <sheet name="奖金分配38" sheetId="17" state="hidden" r:id="rId14"/>
+    <sheet name="奖金分配39" sheetId="18" state="hidden" r:id="rId15"/>
+    <sheet name="奖金分配40" sheetId="19" state="hidden" r:id="rId16"/>
+    <sheet name="奖金分配41" sheetId="20" state="hidden" r:id="rId17"/>
+    <sheet name="奖金分配42" sheetId="21" state="hidden" r:id="rId18"/>
+    <sheet name="奖金分配43" sheetId="22" state="hidden" r:id="rId19"/>
+    <sheet name="奖金分配44" sheetId="23" state="hidden" r:id="rId20"/>
+    <sheet name="奖金分配45" sheetId="24" state="hidden" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'forbs '!$A$17:$V$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">奖金分配44!$A$51:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">奖金分配45!$A$52:$S$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">奖金分配44!$A$51:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">奖金分配45!$A$52:$S$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">奖金分配46!$A$52:$S$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">奖金分配47!$A$53:$T$53</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="295">
   <si>
     <t>29届</t>
     <phoneticPr fontId="1"/>
@@ -2055,6 +2057,13 @@
   <si>
     <t>二</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>47届</t>
+  </si>
+  <si>
+    <t>德甲</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2356,7 +2365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2660,11 +2669,40 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -2734,7 +2772,7 @@
         <xdr:cNvPr id="2" name="四角形吹き出し 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4002,18 +4040,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="13" max="13" width="10.625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="B1">
         <v>3</v>
       </c>
@@ -4024,7 +4059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11">
       <c r="B2">
         <v>2</v>
       </c>
@@ -4035,7 +4070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11">
       <c r="B3">
         <v>1</v>
       </c>
@@ -4046,7 +4081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="B5" s="4">
         <f>B1/SUM(B$1:B$3)</f>
         <v>0.5</v>
@@ -4060,7 +4095,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11">
       <c r="B6" s="4">
         <f t="shared" ref="B6:D7" si="1">B2/SUM(B$1:B$3)</f>
         <v>0.33333333333333331</v>
@@ -4074,7 +4109,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11">
       <c r="B7" s="4">
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
@@ -4087,8 +4122,11 @@
         <f>D3/SUM(D$1:D$3)</f>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="F7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
@@ -4098,124 +4136,125 @@
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="G8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>23</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="8">
         <f>B$13*B5</f>
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" si="2">C$13*C5</f>
-        <v>12.5</v>
+        <v>14.0625</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>8.4375</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="8">
         <f t="shared" ref="B10:D11" si="3">B$13*B6</f>
-        <v>13.333333333333332</v>
+        <v>15</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="3"/>
-        <v>8.3333333333333321</v>
+        <v>9.375</v>
       </c>
       <c r="D10" s="8">
         <f>D$13*D6</f>
+        <v>5.625</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
         <v>5</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="8">
         <f>B$13*B7</f>
-        <v>6.6666666666666661</v>
+        <v>7.5</v>
       </c>
       <c r="C11" s="8">
         <f t="shared" si="3"/>
-        <v>4.1666666666666661</v>
+        <v>4.6875</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>2.8125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="B13" s="5">
         <f>E19</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5">
         <f>E20</f>
-        <v>25</v>
+        <v>28.125</v>
       </c>
       <c r="D13" s="5">
         <f>E21</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="J17" s="36"/>
-      <c r="K17" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
+        <v>16.875</v>
+      </c>
+      <c r="I13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="I14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="I15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
       <c r="D18" s="2"/>
       <c r="E18" s="6">
-        <v>80</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="36">
-        <v>40</v>
-      </c>
-      <c r="L18" s="36">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
       <c r="C19">
         <v>8</v>
       </c>
@@ -4225,19 +4264,10 @@
       </c>
       <c r="E19" s="10">
         <f>$E$18*D19</f>
-        <v>40</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="36">
-        <v>25</v>
-      </c>
-      <c r="L19" s="36">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
       <c r="C20">
         <v>5</v>
       </c>
@@ -4247,19 +4277,10 @@
       </c>
       <c r="E20" s="10">
         <f t="shared" ref="E20:E21" si="4">$E$18*D20</f>
-        <v>25</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="36">
-        <v>15</v>
-      </c>
-      <c r="L20" s="36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15">
+        <v>28.125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
       <c r="C21">
         <v>3</v>
       </c>
@@ -4269,55 +4290,55 @@
       </c>
       <c r="E21" s="10">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15">
+        <v>16.875</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
       <c r="D23" s="2"/>
       <c r="E23" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
       <c r="C24">
         <v>8</v>
       </c>
       <c r="D24" s="9">
         <f>C24/SUM(C$24:C$26)</f>
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="E24" s="10">
         <f>$E$23*D24</f>
-        <v>45.714285714285708</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
       <c r="C25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" ref="D25:D26" si="6">C25/SUM(C$24:C$26)</f>
-        <v>0.2857142857142857</v>
+        <v>0.3125</v>
       </c>
       <c r="E25" s="10">
         <f t="shared" ref="E25:E26" si="7">$E$23*D25</f>
-        <v>22.857142857142854</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15">
+        <v>28.125</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
+        <v>0.1875</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="7"/>
-        <v>11.428571428571427</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15">
+        <v>16.875</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
       <c r="B29" s="27"/>
       <c r="C29" s="96" t="s">
         <v>45</v>
@@ -4339,7 +4360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:11">
       <c r="B30" s="27"/>
       <c r="C30" s="27" t="s">
         <v>8</v>
@@ -4363,60 +4384,51 @@
       <c r="J30" s="99"/>
       <c r="K30" s="99"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:11">
       <c r="B31" s="2"/>
       <c r="C31" s="3">
-        <f>SUM(C32:C38)</f>
-        <v>170</v>
+        <f>SUM(C32:C39)</f>
+        <v>171</v>
       </c>
       <c r="D31" s="3">
-        <f>SUM(D32:D38)</f>
-        <v>64</v>
+        <f>SUM(D32:D39)</f>
+        <v>105</v>
       </c>
       <c r="E31" s="3">
-        <f>SUM(E32:E38)</f>
-        <v>67</v>
+        <f>SUM(E32:E39)</f>
+        <v>113</v>
       </c>
       <c r="F31" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H31" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I31" s="100"/>
       <c r="J31" s="100"/>
       <c r="K31" s="100"/>
-      <c r="M31" t="s">
-        <v>71</v>
-      </c>
-      <c r="N31" t="s">
-        <v>72</v>
-      </c>
-      <c r="O31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15">
+    </row>
+    <row r="32" spans="2:11">
       <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="25">
         <f>F$31/$C$31*C32</f>
-        <v>5.1411764705882348</v>
+        <v>3.6842105263157894</v>
       </c>
       <c r="G32" s="25">
         <f>G$31/$D$31*D32</f>
-        <v>3.59375</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H32" s="25">
         <f>H$31/$E$31*E32</f>
@@ -4424,89 +4436,65 @@
       </c>
       <c r="I32" s="34">
         <f>SUM(F32:H32)</f>
-        <v>8.7349264705882348</v>
-      </c>
-      <c r="J32" s="29"/>
+        <v>10.350877192982455</v>
+      </c>
+      <c r="J32" s="29">
+        <v>9</v>
+      </c>
       <c r="K32" s="29">
         <f>SUM(I32:J32)</f>
-        <v>8.7349264705882348</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M32">
-        <v>10</v>
-      </c>
-      <c r="N32">
-        <v>9</v>
-      </c>
-      <c r="O32">
-        <f>M32-N32</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15">
+        <v>19.350877192982455</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="2">
-        <v>25</v>
-      </c>
-      <c r="D33" s="2">
-        <v>19</v>
-      </c>
-      <c r="E33" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
+        <v>26</v>
+      </c>
       <c r="F33" s="25">
-        <f t="shared" ref="F33:F38" si="8">F$31/$C$31*C33</f>
-        <v>6.7647058823529411</v>
+        <f t="shared" ref="F33:F39" si="8">F$31/$C$31*C33</f>
+        <v>7.6315789473684204</v>
       </c>
       <c r="G33" s="25">
-        <f t="shared" ref="G33:G38" si="9">G$31/$D$31*D33</f>
-        <v>6.828125</v>
+        <f t="shared" ref="G33:G39" si="9">G$31/$D$31*D33</f>
+        <v>0</v>
       </c>
       <c r="H33" s="25">
-        <f t="shared" ref="H33:H38" si="10">H$31/$E$31*E33</f>
-        <v>0</v>
+        <f t="shared" ref="H33:H39" si="10">H$31/$E$31*E33</f>
+        <v>3.9115044247787614</v>
       </c>
       <c r="I33" s="34">
-        <f t="shared" ref="I33:I38" si="11">SUM(F33:H33)</f>
-        <v>13.592830882352942</v>
+        <f t="shared" ref="I33:I39" si="11">SUM(F33:H33)</f>
+        <v>11.543083372147182</v>
       </c>
       <c r="J33" s="29">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="K33" s="29">
-        <f t="shared" ref="K33:K38" si="12">SUM(I33:J33)</f>
-        <v>21.592830882352942</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M33">
-        <v>23</v>
-      </c>
-      <c r="N33">
-        <v>22</v>
-      </c>
-      <c r="O33">
-        <f t="shared" ref="O33:O38" si="13">M33-N33</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15">
+        <f t="shared" ref="K33:K39" si="12">SUM(I33:J33)</f>
+        <v>40.54308337214718</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
       <c r="B34" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="2">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F34" s="25">
         <f t="shared" si="8"/>
-        <v>14.070588235294117</v>
+        <v>7.6315789473684204</v>
       </c>
       <c r="G34" s="25">
         <f t="shared" si="9"/>
@@ -4514,51 +4502,38 @@
       </c>
       <c r="H34" s="25">
         <f t="shared" si="10"/>
-        <v>3.7761194029850746</v>
+        <v>3.610619469026549</v>
       </c>
       <c r="I34" s="34">
         <f t="shared" si="11"/>
-        <v>17.846707638279192</v>
+        <v>11.24219841639497</v>
       </c>
       <c r="J34" s="29">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K34" s="29">
         <f t="shared" si="12"/>
-        <v>58.846707638279192</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M34">
-        <v>63</v>
-      </c>
-      <c r="N34">
-        <v>59</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15">
+        <v>22.24219841639497</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
       <c r="B35" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D35" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="25">
         <f t="shared" si="8"/>
-        <v>1.8941176470588235</v>
+        <v>6.0526315789473681</v>
       </c>
       <c r="G35" s="25">
         <f t="shared" si="9"/>
-        <v>7.1875</v>
+        <v>8.2666666666666657</v>
       </c>
       <c r="H35" s="25">
         <f t="shared" si="10"/>
@@ -4566,43 +4541,33 @@
       </c>
       <c r="I35" s="34">
         <f t="shared" si="11"/>
-        <v>9.0816176470588239</v>
+        <v>14.319298245614034</v>
       </c>
       <c r="J35" s="29">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K35" s="29">
         <f t="shared" si="12"/>
-        <v>26.081617647058824</v>
-      </c>
-      <c r="L35" s="26" t="s">
-        <v>35</v>
+        <v>33.319298245614036</v>
       </c>
       <c r="M35">
-        <v>27</v>
-      </c>
-      <c r="N35">
-        <v>26</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
       <c r="B36" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="2">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F36" s="25">
         <f t="shared" si="8"/>
-        <v>8.3882352941176457</v>
+        <v>10.526315789473683</v>
       </c>
       <c r="G36" s="25">
         <f t="shared" si="9"/>
@@ -4610,91 +4575,68 @@
       </c>
       <c r="H36" s="25">
         <f t="shared" si="10"/>
-        <v>2.955223880597015</v>
+        <v>4.8141592920353986</v>
       </c>
       <c r="I36" s="34">
         <f t="shared" si="11"/>
-        <v>11.34345917471466</v>
+        <v>15.340475081509082</v>
       </c>
       <c r="J36" s="29">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K36" s="29">
         <f t="shared" si="12"/>
-        <v>14.34345917471466</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>37</v>
+        <v>38.340475081509084</v>
       </c>
       <c r="M36">
-        <v>16</v>
-      </c>
-      <c r="N36">
-        <v>14</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
       <c r="B37" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="2">
         <v>36</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2">
-        <v>12</v>
-      </c>
+      <c r="D37" s="2">
+        <v>16</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="25">
         <f t="shared" si="8"/>
-        <v>9.7411764705882344</v>
+        <v>9.473684210526315</v>
       </c>
       <c r="G37" s="25">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.2666666666666666</v>
       </c>
       <c r="H37" s="25">
         <f t="shared" si="10"/>
-        <v>1.9701492537313432</v>
+        <v>0</v>
       </c>
       <c r="I37" s="34">
         <f t="shared" si="11"/>
-        <v>11.711325724319577</v>
+        <v>13.740350877192981</v>
       </c>
       <c r="J37" s="29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K37" s="29">
         <f t="shared" si="12"/>
-        <v>18.711325724319579</v>
-      </c>
-      <c r="L37" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="M37">
-        <v>9</v>
-      </c>
-      <c r="N37">
-        <v>19</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="13"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15">
-      <c r="B38" s="26" t="s">
-        <v>32</v>
+        <v>13.740350877192981</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E38" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F38" s="25">
         <f t="shared" si="8"/>
@@ -4702,149 +4644,127 @@
       </c>
       <c r="G38" s="25">
         <f t="shared" si="9"/>
-        <v>5.390625</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="H38" s="25">
         <f t="shared" si="10"/>
-        <v>2.2985074626865671</v>
+        <v>1.3539823008849559</v>
       </c>
       <c r="I38" s="34">
         <f t="shared" si="11"/>
-        <v>7.6891324626865671</v>
+        <v>6.4206489675516227</v>
       </c>
       <c r="J38" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K38" s="29">
         <f t="shared" si="12"/>
-        <v>12.689132462686567</v>
-      </c>
-      <c r="L38" s="26" t="s">
+        <v>6.4206489675516227</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="M38">
-        <v>13</v>
-      </c>
-      <c r="N38">
-        <v>13</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15">
-      <c r="F40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15">
-      <c r="B41" s="2" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2">
+        <v>14</v>
+      </c>
+      <c r="E39" s="2">
+        <v>22</v>
+      </c>
+      <c r="F39" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="25">
+        <f t="shared" si="9"/>
+        <v>3.7333333333333334</v>
+      </c>
+      <c r="H39" s="25">
+        <f t="shared" si="10"/>
+        <v>3.3097345132743365</v>
+      </c>
+      <c r="I39" s="34">
+        <f t="shared" si="11"/>
+        <v>7.0430678466076699</v>
+      </c>
+      <c r="J39" s="29">
+        <v>0</v>
+      </c>
+      <c r="K39" s="29">
+        <f t="shared" si="12"/>
+        <v>7.0430678466076699</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C42" s="31">
         <v>41</v>
       </c>
-      <c r="E41" s="2" t="s">
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="31">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15">
-      <c r="B42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="31">
-        <v>38</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15">
-      <c r="B43" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="31">
-        <v>33</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15">
-      <c r="B44" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="31">
-        <v>22</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15">
-      <c r="B45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="31">
+      <c r="C46" s="31">
         <v>19</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F45" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15">
-      <c r="B46" s="26" t="s">
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C47" s="31">
         <v>14</v>
       </c>
-      <c r="E46" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F46" s="2">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15">
-      <c r="B47" s="26" t="s">
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C48" s="31">
         <v>7</v>
       </c>
-      <c r="E47" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15">
-      <c r="B48" s="2" t="s">
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C49" s="31">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A50:K58">
+    <sortCondition descending="1" ref="C50:C58"/>
+  </sortState>
   <mergeCells count="5">
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:H29"/>
@@ -4860,9 +4780,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -4973,14 +4893,14 @@
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="F9" t="s">
-        <v>77</v>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s">
-        <v>81</v>
+        <v>56</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4999,14 +4919,14 @@
         <f>D$13*D6</f>
         <v>5</v>
       </c>
-      <c r="F10" t="s">
-        <v>79</v>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
+        <v>57</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5025,14 +4945,14 @@
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>78</v>
+      <c r="F11" t="s">
+        <v>55</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5048,44 +4968,8 @@
         <f>E21</f>
         <v>15</v>
       </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="F16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="F17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="17" spans="2:15">
       <c r="J17" s="36"/>
       <c r="K17" s="36" t="s">
         <v>53</v>
@@ -5094,17 +4978,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:15">
       <c r="D18" s="2"/>
       <c r="E18" s="6">
         <v>80</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18">
-        <v>7</v>
-      </c>
       <c r="J18" s="36" t="s">
         <v>8</v>
       </c>
@@ -5112,10 +4990,10 @@
         <v>40</v>
       </c>
       <c r="L18" s="36">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
       <c r="C19">
         <v>8</v>
       </c>
@@ -5134,10 +5012,10 @@
         <v>25</v>
       </c>
       <c r="L19" s="36">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
       <c r="C20">
         <v>5</v>
       </c>
@@ -5146,20 +5024,20 @@
         <v>0.3125</v>
       </c>
       <c r="E20" s="10">
-        <f t="shared" ref="E20" si="4">$E$18*D20</f>
+        <f t="shared" ref="E20:E21" si="4">$E$18*D20</f>
         <v>25</v>
       </c>
       <c r="J20" s="36" t="s">
         <v>10</v>
       </c>
       <c r="K20" s="36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L20" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
       <c r="C21">
         <v>3</v>
       </c>
@@ -5168,56 +5046,56 @@
         <v>0.1875</v>
       </c>
       <c r="E21" s="10">
-        <f>$E$18*D21</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:15">
       <c r="D23" s="2"/>
       <c r="E23" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:15">
       <c r="C24">
         <v>8</v>
       </c>
       <c r="D24" s="9">
         <f>C24/SUM(C$24:C$26)</f>
-        <v>0.5161290322580645</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E24" s="10">
         <f>$E$23*D24</f>
-        <v>41.29032258064516</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
+        <v>45.714285714285708</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
       <c r="C25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" ref="D25:D26" si="6">C25/SUM(C$24:C$26)</f>
-        <v>0.32258064516129031</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E25" s="10">
         <f t="shared" ref="E25:E26" si="7">$E$23*D25</f>
-        <v>25.806451612903224</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
+        <v>22.857142857142854</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
       <c r="C26">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" si="6"/>
-        <v>0.16129032258064516</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="7"/>
-        <v>12.903225806451612</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
+        <v>11.428571428571427</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
       <c r="B29" s="27"/>
       <c r="C29" s="96" t="s">
         <v>45</v>
@@ -5239,7 +5117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:15">
       <c r="B30" s="27"/>
       <c r="C30" s="27" t="s">
         <v>8</v>
@@ -5263,86 +5141,106 @@
       <c r="J30" s="99"/>
       <c r="K30" s="99"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:15">
       <c r="B31" s="2"/>
       <c r="C31" s="3">
         <f>SUM(C32:C38)</f>
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="D31" s="3">
         <f>SUM(D32:D38)</f>
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="E31" s="3">
         <f>SUM(E32:E38)</f>
         <v>67</v>
       </c>
       <c r="F31" s="3">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G31" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H31" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I31" s="100"/>
       <c r="J31" s="100"/>
       <c r="K31" s="100"/>
-    </row>
-    <row r="32" spans="2:12">
+      <c r="M31" t="s">
+        <v>71</v>
+      </c>
+      <c r="N31" t="s">
+        <v>72</v>
+      </c>
+      <c r="O31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
       <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="2">
-        <v>15</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2">
         <v>10</v>
       </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="25">
         <f>F$31/$C$31*C32</f>
-        <v>5.3947368421052637</v>
+        <v>5.1411764705882348</v>
       </c>
       <c r="G32" s="25">
         <f>G$31/$D$31*D32</f>
-        <v>0</v>
+        <v>3.59375</v>
       </c>
       <c r="H32" s="25">
         <f>H$31/$E$31*E32</f>
-        <v>1.9402985074626866</v>
+        <v>0</v>
       </c>
       <c r="I32" s="34">
         <f>SUM(F32:H32)</f>
-        <v>7.3350353495679501</v>
-      </c>
-      <c r="J32" s="29">
-        <v>0</v>
-      </c>
+        <v>8.7349264705882348</v>
+      </c>
+      <c r="J32" s="29"/>
       <c r="K32" s="29">
         <f>SUM(I32:J32)</f>
-        <v>7.3350353495679501</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12">
+        <v>8.7349264705882348</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <v>10</v>
+      </c>
+      <c r="N32">
+        <v>9</v>
+      </c>
+      <c r="O32">
+        <f>M32-N32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15">
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="2">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="25">
         <f t="shared" ref="F33:F38" si="8">F$31/$C$31*C33</f>
-        <v>11.868421052631579</v>
+        <v>6.7647058823529411</v>
       </c>
       <c r="G33" s="25">
         <f t="shared" ref="G33:G38" si="9">G$31/$D$31*D33</f>
-        <v>3.8518518518518516</v>
+        <v>6.828125</v>
       </c>
       <c r="H33" s="25">
         <f t="shared" ref="H33:H38" si="10">H$31/$E$31*E33</f>
@@ -5350,75 +5248,95 @@
       </c>
       <c r="I33" s="34">
         <f t="shared" ref="I33:I38" si="11">SUM(F33:H33)</f>
-        <v>15.72027290448343</v>
+        <v>13.592830882352942</v>
       </c>
       <c r="J33" s="29">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K33" s="29">
         <f t="shared" ref="K33:K38" si="12">SUM(I33:J33)</f>
-        <v>35.72027290448343</v>
-      </c>
-      <c r="L33">
-        <v>35.72027290448343</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12">
+        <v>21.592830882352942</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33">
+        <v>23</v>
+      </c>
+      <c r="N33">
+        <v>22</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ref="O33:O38" si="13">M33-N33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15">
       <c r="B34" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="2">
-        <v>24</v>
-      </c>
-      <c r="D34" s="2">
-        <v>28</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
+        <v>23</v>
+      </c>
       <c r="F34" s="25">
         <f t="shared" si="8"/>
-        <v>8.6315789473684212</v>
+        <v>14.070588235294117</v>
       </c>
       <c r="G34" s="25">
         <f t="shared" si="9"/>
-        <v>6.7407407407407405</v>
+        <v>0</v>
       </c>
       <c r="H34" s="25">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3.7761194029850746</v>
       </c>
       <c r="I34" s="34">
         <f t="shared" si="11"/>
-        <v>15.372319688109162</v>
+        <v>17.846707638279192</v>
       </c>
       <c r="J34" s="29">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K34" s="29">
         <f t="shared" si="12"/>
-        <v>36.372319688109158</v>
-      </c>
-      <c r="L34">
-        <v>36.372319688109158</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12">
+        <v>58.846707638279192</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34">
+        <v>63</v>
+      </c>
+      <c r="N34">
+        <v>59</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15">
       <c r="B35" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="2">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D35" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="25">
         <f t="shared" si="8"/>
-        <v>8.2719298245614041</v>
+        <v>1.8941176470588235</v>
       </c>
       <c r="G35" s="25">
         <f t="shared" si="9"/>
-        <v>7.2222222222222214</v>
+        <v>7.1875</v>
       </c>
       <c r="H35" s="25">
         <f t="shared" si="10"/>
@@ -5426,33 +5344,43 @@
       </c>
       <c r="I35" s="34">
         <f t="shared" si="11"/>
-        <v>15.494152046783626</v>
+        <v>9.0816176470588239</v>
       </c>
       <c r="J35" s="29">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K35" s="29">
         <f t="shared" si="12"/>
-        <v>35.494152046783626</v>
-      </c>
-      <c r="L35">
-        <v>35.494152046783626</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12">
+        <v>26.081617647058824</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35">
+        <v>27</v>
+      </c>
+      <c r="N35">
+        <v>26</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15">
       <c r="B36" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="2">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F36" s="25">
         <f t="shared" si="8"/>
-        <v>6.8333333333333339</v>
+        <v>8.3882352941176457</v>
       </c>
       <c r="G36" s="25">
         <f t="shared" si="9"/>
@@ -5460,65 +5388,91 @@
       </c>
       <c r="H36" s="25">
         <f t="shared" si="10"/>
-        <v>3.8805970149253732</v>
+        <v>2.955223880597015</v>
       </c>
       <c r="I36" s="34">
         <f t="shared" si="11"/>
-        <v>10.713930348258707</v>
+        <v>11.34345917471466</v>
       </c>
       <c r="J36" s="29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K36" s="29">
         <f t="shared" si="12"/>
-        <v>18.713930348258707</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12">
+        <v>14.34345917471466</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36">
+        <v>16</v>
+      </c>
+      <c r="N36">
+        <v>14</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15">
       <c r="B37" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2">
-        <v>16</v>
-      </c>
+      <c r="C37" s="2">
+        <v>36</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F37" s="25">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>9.7411764705882344</v>
       </c>
       <c r="G37" s="25">
         <f t="shared" si="9"/>
-        <v>3.8518518518518516</v>
+        <v>0</v>
       </c>
       <c r="H37" s="25">
         <f t="shared" si="10"/>
-        <v>3.2985074626865671</v>
+        <v>1.9701492537313432</v>
       </c>
       <c r="I37" s="34">
         <f t="shared" si="11"/>
-        <v>7.1503593145384183</v>
+        <v>11.711325724319577</v>
       </c>
       <c r="J37" s="29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K37" s="29">
         <f t="shared" si="12"/>
-        <v>12.150359314538418</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12">
+        <v>18.711325724319579</v>
+      </c>
+      <c r="L37" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37">
+        <v>9</v>
+      </c>
+      <c r="N37">
+        <v>19</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="13"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15">
       <c r="B38" s="26" t="s">
         <v>32</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F38" s="25">
         <f t="shared" si="8"/>
@@ -5526,78 +5480,146 @@
       </c>
       <c r="G38" s="25">
         <f t="shared" si="9"/>
-        <v>4.333333333333333</v>
+        <v>5.390625</v>
       </c>
       <c r="H38" s="25">
         <f t="shared" si="10"/>
-        <v>3.8805970149253732</v>
+        <v>2.2985074626865671</v>
       </c>
       <c r="I38" s="34">
         <f t="shared" si="11"/>
-        <v>8.2139303482587067</v>
+        <v>7.6891324626865671</v>
       </c>
       <c r="J38" s="29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K38" s="29">
         <f t="shared" si="12"/>
-        <v>15.213930348258707</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12">
-      <c r="D43" s="2" t="s">
+        <v>12.689132462686567</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38">
+        <v>13</v>
+      </c>
+      <c r="N38">
+        <v>13</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="31">
+        <v>41</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="31">
         <v>38</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E42" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="2:12">
-      <c r="D44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12">
-      <c r="D45" s="26" t="s">
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="2">
+      <c r="C43" s="31">
+        <v>33</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="31">
+        <v>22</v>
+      </c>
+      <c r="E44" s="26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="2:12">
-      <c r="D46" s="2" t="s">
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="31">
+        <v>19</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12">
-      <c r="D47" s="26" t="s">
+      <c r="F45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="31">
+        <v>14</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12">
-      <c r="D48" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5">
-      <c r="D49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="C47" s="31">
         <v>7</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="31">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5616,19 +5638,18 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="9" customWidth="1"/>
     <col min="13" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:8">
       <c r="B1">
         <v>3</v>
       </c>
@@ -5639,7 +5660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:8">
       <c r="B2">
         <v>2</v>
       </c>
@@ -5650,7 +5671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:8">
       <c r="B3">
         <v>1</v>
       </c>
@@ -5661,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:8">
       <c r="B5" s="4">
         <f>B1/SUM(B$1:B$3)</f>
         <v>0.5</v>
@@ -5675,7 +5696,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:8">
       <c r="B6" s="4">
         <f t="shared" ref="B6:D7" si="1">B2/SUM(B$1:B$3)</f>
         <v>0.33333333333333331</v>
@@ -5689,7 +5710,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:8">
       <c r="B7" s="4">
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
@@ -5703,7 +5724,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:8">
       <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
@@ -5714,13 +5735,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="8">
         <f>B$13*B5</f>
-        <v>16.071428571428569</v>
+        <v>20</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" si="2">C$13*C5</f>
@@ -5728,16 +5749,25 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" si="2"/>
-        <v>8.9285714285714288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>7.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="8">
         <f t="shared" ref="B10:D11" si="3">B$13*B6</f>
-        <v>10.714285714285712</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="3"/>
@@ -5745,16 +5775,25 @@
       </c>
       <c r="D10" s="8">
         <f>D$13*D6</f>
-        <v>5.9523809523809526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="8">
         <f>B$13*B7</f>
-        <v>5.3571428571428559</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="C11" s="8">
         <f t="shared" si="3"/>
@@ -5762,46 +5801,22 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" si="3"/>
-        <v>2.9761904761904763</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="J12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="2">
-        <v>16</v>
-      </c>
-      <c r="L12" s="2">
-        <v>13</v>
-      </c>
-      <c r="M12" s="2">
-        <v>9</v>
-      </c>
-      <c r="N12" t="s">
-        <v>86</v>
-      </c>
-      <c r="O12" t="s">
-        <v>88</v>
-      </c>
-      <c r="P12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="B13" s="5">
         <f>E19</f>
-        <v>32.142857142857139</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5">
         <f>E20</f>
@@ -5809,54 +5824,46 @@
       </c>
       <c r="D13" s="5">
         <f>E21</f>
-        <v>17.857142857142858</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="2">
-        <v>11</v>
-      </c>
-      <c r="L13" s="2">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16">
         <v>8</v>
       </c>
-      <c r="M13" s="2">
-        <v>6</v>
-      </c>
-      <c r="N13" t="s">
-        <v>87</v>
-      </c>
-      <c r="O13" t="s">
-        <v>89</v>
-      </c>
-      <c r="P13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="J14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="2">
+    </row>
+    <row r="17" spans="2:12">
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17">
         <v>5</v>
       </c>
-      <c r="L14" s="2">
-        <v>4</v>
-      </c>
-      <c r="M14" s="2">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>88</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="P14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
       <c r="J17" s="36"/>
       <c r="K17" s="36" t="s">
         <v>53</v>
@@ -5868,47 +5875,53 @@
     <row r="18" spans="2:12">
       <c r="D18" s="2"/>
       <c r="E18" s="6">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
       </c>
       <c r="J18" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="2">
-        <v>32</v>
-      </c>
-      <c r="L18" s="2">
-        <v>32</v>
+      <c r="K18" s="36">
+        <v>40</v>
+      </c>
+      <c r="L18" s="36">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="C19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="9">
         <f>C19/SUM(C$19:C$21)</f>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="10">
         <f>$E$18*D19</f>
-        <v>32.142857142857139</v>
+        <v>40</v>
       </c>
       <c r="J19" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="36">
         <v>25</v>
       </c>
-      <c r="L19" s="2">
-        <v>25</v>
+      <c r="L19" s="36">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="C20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D20" s="9">
         <f>C20/SUM(C$19:C$21)</f>
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="E20" s="10">
         <f t="shared" ref="E20" si="4">$E$18*D20</f>
@@ -5917,69 +5930,69 @@
       <c r="J20" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="2">
-        <v>18</v>
-      </c>
-      <c r="L20" s="2">
-        <v>18</v>
+      <c r="K20" s="36">
+        <v>16</v>
+      </c>
+      <c r="L20" s="36">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="C21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" ref="D21" si="5">C21/SUM(C$19:C$21)</f>
-        <v>0.23809523809523808</v>
+        <v>0.1875</v>
       </c>
       <c r="E21" s="10">
         <f>$E$18*D21</f>
-        <v>17.857142857142858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="D23" s="2"/>
       <c r="E23" s="6">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="C24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="9">
         <f>C24/SUM(C$24:C$26)</f>
-        <v>0.42857142857142855</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="E24" s="10">
         <f>$E$23*D24</f>
-        <v>32.142857142857139</v>
+        <v>41.29032258064516</v>
       </c>
     </row>
     <row r="25" spans="2:12">
       <c r="C25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" ref="D25:D26" si="6">C25/SUM(C$24:C$26)</f>
-        <v>0.33333333333333331</v>
+        <v>0.32258064516129031</v>
       </c>
       <c r="E25" s="10">
         <f t="shared" ref="E25:E26" si="7">$E$23*D25</f>
-        <v>25</v>
+        <v>25.806451612903224</v>
       </c>
     </row>
     <row r="26" spans="2:12">
       <c r="C26">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" si="6"/>
-        <v>0.23809523809523808</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="7"/>
-        <v>17.857142857142858</v>
+        <v>12.903225806451612</v>
       </c>
     </row>
     <row r="29" spans="2:12">
@@ -6032,24 +6045,24 @@
       <c r="B31" s="2"/>
       <c r="C31" s="3">
         <f>SUM(C32:C38)</f>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D31" s="3">
         <f>SUM(D32:D38)</f>
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E31" s="3">
         <f>SUM(E32:E38)</f>
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F31" s="3">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G31" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H31" s="3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I31" s="100"/>
       <c r="J31" s="100"/>
@@ -6060,39 +6073,34 @@
         <v>30</v>
       </c>
       <c r="C32" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" s="2">
-        <v>9</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32" s="25">
         <f>F$31/$C$31*C32</f>
-        <v>3.1150442477876106</v>
+        <v>5.3947368421052637</v>
       </c>
       <c r="G32" s="25">
         <f>G$31/$D$31*D32</f>
-        <v>1.9396551724137929</v>
+        <v>0</v>
       </c>
       <c r="H32" s="25">
         <f>H$31/$E$31*E32</f>
-        <v>1.4086956521739131</v>
+        <v>1.9402985074626866</v>
       </c>
       <c r="I32" s="34">
         <f>SUM(F32:H32)</f>
-        <v>6.4633950723753166</v>
+        <v>7.3350353495679501</v>
       </c>
       <c r="J32" s="29">
         <v>0</v>
       </c>
       <c r="K32" s="29">
         <f>SUM(I32:J32)</f>
-        <v>6.4633950723753166</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>30</v>
+        <v>7.3350353495679501</v>
       </c>
     </row>
     <row r="33" spans="2:12">
@@ -6100,39 +6108,37 @@
         <v>36</v>
       </c>
       <c r="C33" s="2">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
-        <v>22</v>
-      </c>
-      <c r="E33" s="2">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="25">
         <f t="shared" ref="F33:F38" si="8">F$31/$C$31*C33</f>
-        <v>4.8141592920353986</v>
+        <v>11.868421052631579</v>
       </c>
       <c r="G33" s="25">
         <f t="shared" ref="G33:G38" si="9">G$31/$D$31*D33</f>
-        <v>4.7413793103448274</v>
+        <v>3.8518518518518516</v>
       </c>
       <c r="H33" s="25">
         <f t="shared" ref="H33:H38" si="10">H$31/$E$31*E33</f>
-        <v>3.1304347826086958</v>
+        <v>0</v>
       </c>
       <c r="I33" s="34">
         <f t="shared" ref="I33:I38" si="11">SUM(F33:H33)</f>
-        <v>12.685973384988921</v>
+        <v>15.72027290448343</v>
       </c>
       <c r="J33" s="29">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K33" s="29">
         <f t="shared" ref="K33:K38" si="12">SUM(I33:J33)</f>
-        <v>26.68597338498892</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>36</v>
+        <v>35.72027290448343</v>
+      </c>
+      <c r="L33">
+        <v>35.72027290448343</v>
       </c>
     </row>
     <row r="34" spans="2:12">
@@ -6143,36 +6149,34 @@
         <v>24</v>
       </c>
       <c r="D34" s="2">
-        <v>13</v>
-      </c>
-      <c r="E34" s="2">
         <v>28</v>
       </c>
+      <c r="E34" s="2"/>
       <c r="F34" s="25">
         <f t="shared" si="8"/>
-        <v>6.7964601769911503</v>
+        <v>8.6315789473684212</v>
       </c>
       <c r="G34" s="25">
         <f t="shared" si="9"/>
-        <v>2.8017241379310343</v>
+        <v>6.7407407407407405</v>
       </c>
       <c r="H34" s="25">
         <f t="shared" si="10"/>
-        <v>4.3826086956521744</v>
+        <v>0</v>
       </c>
       <c r="I34" s="34">
         <f t="shared" si="11"/>
-        <v>13.980793010574359</v>
+        <v>15.372319688109162</v>
       </c>
       <c r="J34" s="29">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K34" s="29">
         <f t="shared" si="12"/>
-        <v>38.980793010574359</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>38</v>
+        <v>36.372319688109158</v>
+      </c>
+      <c r="L34">
+        <v>36.372319688109158</v>
       </c>
     </row>
     <row r="35" spans="2:12">
@@ -6180,39 +6184,37 @@
         <v>35</v>
       </c>
       <c r="C35" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D35" s="2">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2">
-        <v>16</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="25">
         <f t="shared" si="8"/>
-        <v>3.9646017699115044</v>
+        <v>8.2719298245614041</v>
       </c>
       <c r="G35" s="25">
         <f t="shared" si="9"/>
-        <v>2.8017241379310343</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="H35" s="25">
         <f t="shared" si="10"/>
-        <v>2.5043478260869567</v>
+        <v>0</v>
       </c>
       <c r="I35" s="34">
         <f t="shared" si="11"/>
-        <v>9.2706737339294953</v>
+        <v>15.494152046783626</v>
       </c>
       <c r="J35" s="29">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K35" s="29">
         <f t="shared" si="12"/>
-        <v>9.2706737339294953</v>
-      </c>
-      <c r="L35" s="26" t="s">
-        <v>35</v>
+        <v>35.494152046783626</v>
+      </c>
+      <c r="L35">
+        <v>35.494152046783626</v>
       </c>
     </row>
     <row r="36" spans="2:12">
@@ -6220,119 +6222,160 @@
         <v>37</v>
       </c>
       <c r="C36" s="2">
+        <v>19</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
         <v>20</v>
-      </c>
-      <c r="D36" s="2">
-        <v>13</v>
-      </c>
-      <c r="E36" s="2">
-        <v>17</v>
       </c>
       <c r="F36" s="25">
         <f t="shared" si="8"/>
-        <v>5.663716814159292</v>
+        <v>6.8333333333333339</v>
       </c>
       <c r="G36" s="25">
         <f t="shared" si="9"/>
-        <v>2.8017241379310343</v>
+        <v>0</v>
       </c>
       <c r="H36" s="25">
         <f t="shared" si="10"/>
-        <v>2.6608695652173915</v>
+        <v>3.8805970149253732</v>
       </c>
       <c r="I36" s="34">
         <f t="shared" si="11"/>
-        <v>11.126310517307717</v>
+        <v>10.713930348258707</v>
       </c>
       <c r="J36" s="29">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K36" s="29">
         <f t="shared" si="12"/>
-        <v>25.126310517307715</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>37</v>
+        <v>18.713930348258707</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
+        <v>16</v>
+      </c>
+      <c r="E37" s="2">
         <v>17</v>
-      </c>
-      <c r="D37" s="2">
-        <v>26</v>
-      </c>
-      <c r="E37" s="2">
-        <v>13</v>
       </c>
       <c r="F37" s="25">
         <f t="shared" si="8"/>
-        <v>4.8141592920353986</v>
+        <v>0</v>
       </c>
       <c r="G37" s="25">
         <f t="shared" si="9"/>
-        <v>5.6034482758620685</v>
+        <v>3.8518518518518516</v>
       </c>
       <c r="H37" s="25">
         <f t="shared" si="10"/>
-        <v>2.0347826086956524</v>
+        <v>3.2985074626865671</v>
       </c>
       <c r="I37" s="34">
         <f t="shared" si="11"/>
-        <v>12.452390176593118</v>
+        <v>7.1503593145384183</v>
       </c>
       <c r="J37" s="29">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K37" s="29">
         <f t="shared" si="12"/>
-        <v>30.45239017659312</v>
-      </c>
-      <c r="L37" s="26" t="s">
-        <v>39</v>
+        <v>12.150359314538418</v>
       </c>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="2">
-        <v>10</v>
-      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="2">
+        <v>18</v>
+      </c>
+      <c r="E38" s="2">
         <v>20</v>
-      </c>
-      <c r="E38" s="2">
-        <v>12</v>
       </c>
       <c r="F38" s="25">
         <f t="shared" si="8"/>
-        <v>2.831858407079646</v>
+        <v>0</v>
       </c>
       <c r="G38" s="25">
         <f t="shared" si="9"/>
-        <v>4.3103448275862064</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="H38" s="25">
         <f t="shared" si="10"/>
-        <v>1.8782608695652177</v>
+        <v>3.8805970149253732</v>
       </c>
       <c r="I38" s="34">
         <f t="shared" si="11"/>
-        <v>9.0204641042310705</v>
+        <v>8.2139303482587067</v>
       </c>
       <c r="J38" s="29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K38" s="29">
         <f t="shared" si="12"/>
-        <v>13.02046410423107</v>
-      </c>
-      <c r="L38" s="26" t="s">
+        <v>15.213930348258707</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="D43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="D44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="D45" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="D46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="D47" s="26" t="s">
         <v>32</v>
+      </c>
+      <c r="E47" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="D48" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -6351,6 +6394,741 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="13" max="13" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5" s="4">
+        <f>B1/SUM(B$1:B$3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:D5" si="0">C1/SUM(C$1:C$3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="4">
+        <f t="shared" ref="B6:D7" si="1">B2/SUM(B$1:B$3)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D7" s="4">
+        <f>D3/SUM(D$1:D$3)</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
+        <f>B$13*B5</f>
+        <v>16.071428571428569</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" ref="C9:D9" si="2">C$13*C5</f>
+        <v>12.5</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="2"/>
+        <v>8.9285714285714288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" ref="B10:D11" si="3">B$13*B6</f>
+        <v>10.714285714285712</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="D10" s="8">
+        <f>D$13*D6</f>
+        <v>5.9523809523809526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8">
+        <f>B$13*B7</f>
+        <v>5.3571428571428559</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="3"/>
+        <v>2.9761904761904763</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="J12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="2">
+        <v>16</v>
+      </c>
+      <c r="L12" s="2">
+        <v>13</v>
+      </c>
+      <c r="M12" s="2">
+        <v>9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13" s="5">
+        <f>E19</f>
+        <v>32.142857142857139</v>
+      </c>
+      <c r="C13" s="5">
+        <f>E20</f>
+        <v>25</v>
+      </c>
+      <c r="D13" s="5">
+        <f>E21</f>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="2">
+        <v>11</v>
+      </c>
+      <c r="L13" s="2">
+        <v>8</v>
+      </c>
+      <c r="M13" s="2">
+        <v>6</v>
+      </c>
+      <c r="N13" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="J14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>4</v>
+      </c>
+      <c r="M14" s="2">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="J17" s="36"/>
+      <c r="K17" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="D18" s="2"/>
+      <c r="E18" s="6">
+        <v>75</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="2">
+        <v>32</v>
+      </c>
+      <c r="L18" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19" s="9">
+        <f>C19/SUM(C$19:C$21)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E19" s="10">
+        <f>$E$18*D19</f>
+        <v>32.142857142857139</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="2">
+        <v>25</v>
+      </c>
+      <c r="L19" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9">
+        <f>C20/SUM(C$19:C$21)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" ref="E20" si="4">$E$18*D20</f>
+        <v>25</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="2">
+        <v>18</v>
+      </c>
+      <c r="L20" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" ref="D21" si="5">C21/SUM(C$19:C$21)</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="E21" s="10">
+        <f>$E$18*D21</f>
+        <v>17.857142857142858</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="D23" s="2"/>
+      <c r="E23" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24" s="9">
+        <f>C24/SUM(C$24:C$26)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E24" s="10">
+        <f>$E$23*D24</f>
+        <v>32.142857142857139</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" ref="D25:D26" si="6">C25/SUM(C$24:C$26)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" ref="E25:E26" si="7">$E$23*D25</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="6"/>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="7"/>
+        <v>17.857142857142858</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="27"/>
+      <c r="C29" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3">
+        <f>SUM(C32:C38)</f>
+        <v>113</v>
+      </c>
+      <c r="D31" s="3">
+        <f>SUM(D32:D38)</f>
+        <v>116</v>
+      </c>
+      <c r="E31" s="3">
+        <f>SUM(E32:E38)</f>
+        <v>115</v>
+      </c>
+      <c r="F31" s="3">
+        <v>32</v>
+      </c>
+      <c r="G31" s="3">
+        <v>25</v>
+      </c>
+      <c r="H31" s="3">
+        <v>18</v>
+      </c>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2">
+        <v>11</v>
+      </c>
+      <c r="D32" s="2">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2">
+        <v>9</v>
+      </c>
+      <c r="F32" s="25">
+        <f>F$31/$C$31*C32</f>
+        <v>3.1150442477876106</v>
+      </c>
+      <c r="G32" s="25">
+        <f>G$31/$D$31*D32</f>
+        <v>1.9396551724137929</v>
+      </c>
+      <c r="H32" s="25">
+        <f>H$31/$E$31*E32</f>
+        <v>1.4086956521739131</v>
+      </c>
+      <c r="I32" s="34">
+        <f>SUM(F32:H32)</f>
+        <v>6.4633950723753166</v>
+      </c>
+      <c r="J32" s="29">
+        <v>0</v>
+      </c>
+      <c r="K32" s="29">
+        <f>SUM(I32:J32)</f>
+        <v>6.4633950723753166</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="2">
+        <v>17</v>
+      </c>
+      <c r="D33" s="2">
+        <v>22</v>
+      </c>
+      <c r="E33" s="2">
+        <v>20</v>
+      </c>
+      <c r="F33" s="25">
+        <f t="shared" ref="F33:F38" si="8">F$31/$C$31*C33</f>
+        <v>4.8141592920353986</v>
+      </c>
+      <c r="G33" s="25">
+        <f t="shared" ref="G33:G38" si="9">G$31/$D$31*D33</f>
+        <v>4.7413793103448274</v>
+      </c>
+      <c r="H33" s="25">
+        <f t="shared" ref="H33:H38" si="10">H$31/$E$31*E33</f>
+        <v>3.1304347826086958</v>
+      </c>
+      <c r="I33" s="34">
+        <f t="shared" ref="I33:I38" si="11">SUM(F33:H33)</f>
+        <v>12.685973384988921</v>
+      </c>
+      <c r="J33" s="29">
+        <v>14</v>
+      </c>
+      <c r="K33" s="29">
+        <f t="shared" ref="K33:K38" si="12">SUM(I33:J33)</f>
+        <v>26.68597338498892</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="2">
+        <v>24</v>
+      </c>
+      <c r="D34" s="2">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2">
+        <v>28</v>
+      </c>
+      <c r="F34" s="25">
+        <f t="shared" si="8"/>
+        <v>6.7964601769911503</v>
+      </c>
+      <c r="G34" s="25">
+        <f t="shared" si="9"/>
+        <v>2.8017241379310343</v>
+      </c>
+      <c r="H34" s="25">
+        <f t="shared" si="10"/>
+        <v>4.3826086956521744</v>
+      </c>
+      <c r="I34" s="34">
+        <f t="shared" si="11"/>
+        <v>13.980793010574359</v>
+      </c>
+      <c r="J34" s="29">
+        <v>25</v>
+      </c>
+      <c r="K34" s="29">
+        <f t="shared" si="12"/>
+        <v>38.980793010574359</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="2">
+        <v>14</v>
+      </c>
+      <c r="D35" s="2">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2">
+        <v>16</v>
+      </c>
+      <c r="F35" s="25">
+        <f t="shared" si="8"/>
+        <v>3.9646017699115044</v>
+      </c>
+      <c r="G35" s="25">
+        <f t="shared" si="9"/>
+        <v>2.8017241379310343</v>
+      </c>
+      <c r="H35" s="25">
+        <f t="shared" si="10"/>
+        <v>2.5043478260869567</v>
+      </c>
+      <c r="I35" s="34">
+        <f t="shared" si="11"/>
+        <v>9.2706737339294953</v>
+      </c>
+      <c r="J35" s="29">
+        <v>0</v>
+      </c>
+      <c r="K35" s="29">
+        <f t="shared" si="12"/>
+        <v>9.2706737339294953</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2">
+        <v>20</v>
+      </c>
+      <c r="D36" s="2">
+        <v>13</v>
+      </c>
+      <c r="E36" s="2">
+        <v>17</v>
+      </c>
+      <c r="F36" s="25">
+        <f t="shared" si="8"/>
+        <v>5.663716814159292</v>
+      </c>
+      <c r="G36" s="25">
+        <f t="shared" si="9"/>
+        <v>2.8017241379310343</v>
+      </c>
+      <c r="H36" s="25">
+        <f t="shared" si="10"/>
+        <v>2.6608695652173915</v>
+      </c>
+      <c r="I36" s="34">
+        <f t="shared" si="11"/>
+        <v>11.126310517307717</v>
+      </c>
+      <c r="J36" s="29">
+        <v>14</v>
+      </c>
+      <c r="K36" s="29">
+        <f t="shared" si="12"/>
+        <v>25.126310517307715</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="2">
+        <v>17</v>
+      </c>
+      <c r="D37" s="2">
+        <v>26</v>
+      </c>
+      <c r="E37" s="2">
+        <v>13</v>
+      </c>
+      <c r="F37" s="25">
+        <f t="shared" si="8"/>
+        <v>4.8141592920353986</v>
+      </c>
+      <c r="G37" s="25">
+        <f t="shared" si="9"/>
+        <v>5.6034482758620685</v>
+      </c>
+      <c r="H37" s="25">
+        <f t="shared" si="10"/>
+        <v>2.0347826086956524</v>
+      </c>
+      <c r="I37" s="34">
+        <f t="shared" si="11"/>
+        <v>12.452390176593118</v>
+      </c>
+      <c r="J37" s="29">
+        <v>18</v>
+      </c>
+      <c r="K37" s="29">
+        <f t="shared" si="12"/>
+        <v>30.45239017659312</v>
+      </c>
+      <c r="L37" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="2">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2">
+        <v>20</v>
+      </c>
+      <c r="E38" s="2">
+        <v>12</v>
+      </c>
+      <c r="F38" s="25">
+        <f t="shared" si="8"/>
+        <v>2.831858407079646</v>
+      </c>
+      <c r="G38" s="25">
+        <f t="shared" si="9"/>
+        <v>4.3103448275862064</v>
+      </c>
+      <c r="H38" s="25">
+        <f t="shared" si="10"/>
+        <v>1.8782608695652177</v>
+      </c>
+      <c r="I38" s="34">
+        <f t="shared" si="11"/>
+        <v>9.0204641042310705</v>
+      </c>
+      <c r="J38" s="29">
+        <v>4</v>
+      </c>
+      <c r="K38" s="29">
+        <f t="shared" si="12"/>
+        <v>13.02046410423107</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K29:K31"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -7130,7 +7908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q61"/>
   <sheetViews>
@@ -8130,7 +8908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T57"/>
   <sheetViews>
@@ -9215,7 +9993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q57"/>
   <sheetViews>
@@ -10173,7 +10951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S57"/>
   <sheetViews>
@@ -11154,7 +11932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S57"/>
   <sheetViews>
@@ -12171,7 +12949,385 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:D25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" zoomScale="142" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.625" style="84" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="83" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="40">
+        <v>42727</v>
+      </c>
+      <c r="C3" s="40">
+        <v>42748</v>
+      </c>
+      <c r="D3" s="36">
+        <f>C3-B3</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="40">
+        <v>42748</v>
+      </c>
+      <c r="C4" s="40">
+        <v>42780</v>
+      </c>
+      <c r="D4" s="36">
+        <f t="shared" ref="D4:D13" si="0">C4-B4</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="40">
+        <v>42780</v>
+      </c>
+      <c r="C5" s="40">
+        <v>42797</v>
+      </c>
+      <c r="D5" s="36">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="40">
+        <v>42797</v>
+      </c>
+      <c r="C6" s="40">
+        <v>42816</v>
+      </c>
+      <c r="D6" s="36">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="40">
+        <v>42816</v>
+      </c>
+      <c r="C7" s="40">
+        <v>42832</v>
+      </c>
+      <c r="D7" s="36">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="40">
+        <v>42832</v>
+      </c>
+      <c r="C8" s="40">
+        <v>42844</v>
+      </c>
+      <c r="D8" s="36">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="40">
+        <v>42844</v>
+      </c>
+      <c r="C9" s="40">
+        <v>42857</v>
+      </c>
+      <c r="D9" s="36">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="40">
+        <v>42857</v>
+      </c>
+      <c r="C10" s="40">
+        <v>42873</v>
+      </c>
+      <c r="D10" s="36">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="40">
+        <v>42873</v>
+      </c>
+      <c r="C11" s="40">
+        <v>42888</v>
+      </c>
+      <c r="D11" s="36">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="40">
+        <v>42888</v>
+      </c>
+      <c r="C12" s="40">
+        <v>42907</v>
+      </c>
+      <c r="D12" s="36">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="40">
+        <v>42907</v>
+      </c>
+      <c r="C13" s="41">
+        <v>42920</v>
+      </c>
+      <c r="D13" s="36">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="41">
+        <v>42920</v>
+      </c>
+      <c r="C14" s="41">
+        <v>42940</v>
+      </c>
+      <c r="D14" s="36">
+        <f t="shared" ref="D14" si="1">C14-B14</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="41">
+        <v>42929</v>
+      </c>
+      <c r="C15" s="41">
+        <v>42955</v>
+      </c>
+      <c r="D15" s="36">
+        <f t="shared" ref="D15:D22" si="2">C15-B15</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="41">
+        <v>42951</v>
+      </c>
+      <c r="C16" s="41">
+        <v>42982</v>
+      </c>
+      <c r="D16" s="36">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="41">
+        <v>42977</v>
+      </c>
+      <c r="C17" s="41">
+        <v>42997</v>
+      </c>
+      <c r="D17" s="36">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="41">
+        <v>43004</v>
+      </c>
+      <c r="C18" s="41">
+        <v>43039</v>
+      </c>
+      <c r="D18" s="36">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="41">
+        <v>43035</v>
+      </c>
+      <c r="C19" s="41">
+        <v>43054</v>
+      </c>
+      <c r="D19" s="36">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="41">
+        <v>43054</v>
+      </c>
+      <c r="C20" s="41">
+        <v>43070</v>
+      </c>
+      <c r="D20" s="36">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="41">
+        <v>43070</v>
+      </c>
+      <c r="C21" s="41">
+        <v>43089</v>
+      </c>
+      <c r="D21" s="36">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="41">
+        <v>43089</v>
+      </c>
+      <c r="C22" s="41">
+        <v>43133</v>
+      </c>
+      <c r="D22" s="36">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="41">
+        <v>43207</v>
+      </c>
+      <c r="C23" s="41">
+        <v>43235</v>
+      </c>
+      <c r="D23" s="36">
+        <f t="shared" ref="D23" si="3">C23-B23</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41">
+        <v>43257</v>
+      </c>
+      <c r="D24" s="36">
+        <f t="shared" ref="D24:D25" si="4">C24-B24</f>
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="41">
+        <v>43278</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="36">
+        <f t="shared" si="4"/>
+        <v>-43278</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B8">
+    <sortCondition descending="1" ref="B2:B8"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S57"/>
   <sheetViews>
@@ -13286,7 +14442,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B9:E11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13295,372 +14451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="142" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.625" style="84" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="83" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="40">
-        <v>42727</v>
-      </c>
-      <c r="C3" s="40">
-        <v>42748</v>
-      </c>
-      <c r="D3" s="36">
-        <f>C3-B3</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="40">
-        <v>42748</v>
-      </c>
-      <c r="C4" s="40">
-        <v>42780</v>
-      </c>
-      <c r="D4" s="36">
-        <f t="shared" ref="D4:D13" si="0">C4-B4</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="40">
-        <v>42780</v>
-      </c>
-      <c r="C5" s="40">
-        <v>42797</v>
-      </c>
-      <c r="D5" s="36">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="40">
-        <v>42797</v>
-      </c>
-      <c r="C6" s="40">
-        <v>42816</v>
-      </c>
-      <c r="D6" s="36">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="40">
-        <v>42816</v>
-      </c>
-      <c r="C7" s="40">
-        <v>42832</v>
-      </c>
-      <c r="D7" s="36">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="40">
-        <v>42832</v>
-      </c>
-      <c r="C8" s="40">
-        <v>42844</v>
-      </c>
-      <c r="D8" s="36">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="40">
-        <v>42844</v>
-      </c>
-      <c r="C9" s="40">
-        <v>42857</v>
-      </c>
-      <c r="D9" s="36">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="40">
-        <v>42857</v>
-      </c>
-      <c r="C10" s="40">
-        <v>42873</v>
-      </c>
-      <c r="D10" s="36">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="40">
-        <v>42873</v>
-      </c>
-      <c r="C11" s="40">
-        <v>42888</v>
-      </c>
-      <c r="D11" s="36">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="40">
-        <v>42888</v>
-      </c>
-      <c r="C12" s="40">
-        <v>42907</v>
-      </c>
-      <c r="D12" s="36">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="40">
-        <v>42907</v>
-      </c>
-      <c r="C13" s="41">
-        <v>42920</v>
-      </c>
-      <c r="D13" s="36">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="41">
-        <v>42920</v>
-      </c>
-      <c r="C14" s="41">
-        <v>42940</v>
-      </c>
-      <c r="D14" s="36">
-        <f t="shared" ref="D14" si="1">C14-B14</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="41">
-        <v>42929</v>
-      </c>
-      <c r="C15" s="41">
-        <v>42955</v>
-      </c>
-      <c r="D15" s="36">
-        <f t="shared" ref="D15:D22" si="2">C15-B15</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="41">
-        <v>42951</v>
-      </c>
-      <c r="C16" s="41">
-        <v>42982</v>
-      </c>
-      <c r="D16" s="36">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="41">
-        <v>42977</v>
-      </c>
-      <c r="C17" s="41">
-        <v>42997</v>
-      </c>
-      <c r="D17" s="36">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="41">
-        <v>43004</v>
-      </c>
-      <c r="C18" s="41">
-        <v>43039</v>
-      </c>
-      <c r="D18" s="36">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" s="41">
-        <v>43035</v>
-      </c>
-      <c r="C19" s="41">
-        <v>43054</v>
-      </c>
-      <c r="D19" s="36">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" s="41">
-        <v>43054</v>
-      </c>
-      <c r="C20" s="41">
-        <v>43070</v>
-      </c>
-      <c r="D20" s="36">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B21" s="41">
-        <v>43070</v>
-      </c>
-      <c r="C21" s="41">
-        <v>43089</v>
-      </c>
-      <c r="D21" s="36">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B22" s="41">
-        <v>43089</v>
-      </c>
-      <c r="C22" s="41">
-        <v>43133</v>
-      </c>
-      <c r="D22" s="36">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B23" s="41">
-        <v>43207</v>
-      </c>
-      <c r="C23" s="41">
-        <v>43235</v>
-      </c>
-      <c r="D23" s="36">
-        <f t="shared" ref="D23" si="3">C23-B23</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41">
-        <v>43257</v>
-      </c>
-      <c r="D24" s="36">
-        <f t="shared" ref="D24" si="4">C24-B24</f>
-        <v>43257</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:B8">
-    <sortCondition descending="1" ref="B2:B8"/>
-  </sortState>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S58"/>
   <sheetViews>
@@ -14770,7 +15561,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B9:E11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16867,7 +17658,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B9:E11">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16877,6 +17668,1108 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:T59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="8.875" customWidth="1"/>
+    <col min="16" max="18" width="5" customWidth="1"/>
+    <col min="19" max="19" width="5.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="B1">
+        <v>7</v>
+      </c>
+      <c r="C1">
+        <v>7</v>
+      </c>
+      <c r="D1">
+        <v>7</v>
+      </c>
+      <c r="E1">
+        <v>7</v>
+      </c>
+      <c r="F1">
+        <v>7</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2">
+        <f>H2*I2</f>
+        <v>280</v>
+      </c>
+      <c r="K2" s="2">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <f>J2-K2</f>
+        <v>250</v>
+      </c>
+      <c r="T2" s="57"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="T3" s="24"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="B5" s="4">
+        <f>B1/SUM(B$1:B$3)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:D5" si="0">C1/SUM(C$1:C$3)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:F6" si="1">E1/SUM(E$1:E$3)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="B6" s="4">
+        <f t="shared" ref="B6:D7" si="2">B2/SUM(B$1:B$3)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="B7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="4">
+        <f>D3/SUM(D$1:D$3)</f>
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="4">
+        <f>E3/SUM(E$1:E$3)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="4">
+        <f>F3/SUM(F$1:F$3)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="B8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="T8" s="24"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
+        <f>B$13*B5</f>
+        <v>21.4375</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" ref="C9:D9" si="3">C$13*C5</f>
+        <v>18.375</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="3"/>
+        <v>15.3125</v>
+      </c>
+      <c r="E9" s="8">
+        <f>E$13*E5</f>
+        <v>12.25</v>
+      </c>
+      <c r="F9" s="8">
+        <f>F$13*F5</f>
+        <v>30.625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" ref="B10:E11" si="4">B$13*B6</f>
+        <v>15.3125</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="4"/>
+        <v>13.125</v>
+      </c>
+      <c r="D10" s="8">
+        <f>D$13*D6</f>
+        <v>10.9375</v>
+      </c>
+      <c r="E10" s="8">
+        <f>E$13*E6</f>
+        <v>8.75</v>
+      </c>
+      <c r="F10" s="8">
+        <f>F$13*F6</f>
+        <v>21.875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8">
+        <f>B$13*B7</f>
+        <v>9.1875</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="4"/>
+        <v>7.875</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="4"/>
+        <v>6.5625</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="4"/>
+        <v>5.25</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" ref="F11" si="5">F$13*F7</f>
+        <v>13.125</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="J12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="49">
+        <v>21</v>
+      </c>
+      <c r="L12" s="49">
+        <v>18</v>
+      </c>
+      <c r="M12" s="49">
+        <v>15</v>
+      </c>
+      <c r="N12" s="49">
+        <v>12</v>
+      </c>
+      <c r="O12" s="91">
+        <v>31</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="B13" s="5">
+        <f>E19</f>
+        <v>45.9375</v>
+      </c>
+      <c r="C13" s="5">
+        <f>E20</f>
+        <v>39.375</v>
+      </c>
+      <c r="D13" s="5">
+        <f>E21</f>
+        <v>32.8125</v>
+      </c>
+      <c r="E13" s="5">
+        <f>E22</f>
+        <v>26.25</v>
+      </c>
+      <c r="F13" s="5">
+        <f>E23</f>
+        <v>65.625</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="49">
+        <v>15</v>
+      </c>
+      <c r="L13" s="49">
+        <v>13</v>
+      </c>
+      <c r="M13" s="49">
+        <v>11</v>
+      </c>
+      <c r="N13" s="49">
+        <v>9</v>
+      </c>
+      <c r="O13" s="91">
+        <v>22</v>
+      </c>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="J14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="49">
+        <v>9</v>
+      </c>
+      <c r="L14" s="49">
+        <v>8</v>
+      </c>
+      <c r="M14" s="49">
+        <v>7</v>
+      </c>
+      <c r="N14" s="49">
+        <v>5</v>
+      </c>
+      <c r="O14" s="91">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="O16" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="60">
+        <f t="shared" ref="P16:P23" si="6">SUMIF($P$12:$S$14,O16,$K$12:$O$14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="J17" s="36"/>
+      <c r="K17" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="C18" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="6">
+        <v>210</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="K18" s="93">
+        <f>SUM(K12:K14)</f>
+        <v>45</v>
+      </c>
+      <c r="L18" s="94"/>
+      <c r="O18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="C19" s="49">
+        <v>7</v>
+      </c>
+      <c r="D19" s="9">
+        <f>C19/SUM(C$19:C$23)</f>
+        <v>0.21875</v>
+      </c>
+      <c r="E19" s="10">
+        <f>$E$18*D19</f>
+        <v>45.9375</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="K19" s="93">
+        <f>SUM(L12:L14)</f>
+        <v>39</v>
+      </c>
+      <c r="L19" s="94"/>
+      <c r="O19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="C20" s="49">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9">
+        <f>C20/SUM(C$19:C$23)</f>
+        <v>0.1875</v>
+      </c>
+      <c r="E20" s="10">
+        <f>$E$18*D20</f>
+        <v>39.375</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="K20" s="93">
+        <f>SUM(M12:M14)</f>
+        <v>33</v>
+      </c>
+      <c r="L20" s="94"/>
+      <c r="O20" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="C21" s="49">
+        <v>5</v>
+      </c>
+      <c r="D21" s="9">
+        <f>C21/SUM(C$19:C$23)</f>
+        <v>0.15625</v>
+      </c>
+      <c r="E21" s="10">
+        <f>$E$18*D21</f>
+        <v>32.8125</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="K21" s="93">
+        <f>SUM(N12:N14)</f>
+        <v>26</v>
+      </c>
+      <c r="L21" s="94"/>
+      <c r="O21" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="P21" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="C22" s="49">
+        <v>4</v>
+      </c>
+      <c r="D22" s="9">
+        <f>C22/SUM(C$19:C$23)</f>
+        <v>0.125</v>
+      </c>
+      <c r="E22" s="10">
+        <f>$E$18*D22</f>
+        <v>26.25</v>
+      </c>
+      <c r="J22" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" s="95">
+        <f>SUM(O12:O14)</f>
+        <v>66</v>
+      </c>
+      <c r="L22" s="94">
+        <v>39</v>
+      </c>
+      <c r="O22" s="78"/>
+      <c r="P22" s="60"/>
+    </row>
+    <row r="23" spans="2:18" ht="15">
+      <c r="C23" s="49">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9">
+        <f>C23/SUM(C$19:C$23)</f>
+        <v>0.3125</v>
+      </c>
+      <c r="E23" s="10">
+        <f>$E$18*D23</f>
+        <v>65.625</v>
+      </c>
+      <c r="J23" s="101"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="103"/>
+      <c r="O23" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="P23" s="48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="27"/>
+      <c r="C31" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31" s="98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="27"/>
+      <c r="C32" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="B33" s="2"/>
+      <c r="C33" s="3">
+        <f>SUM(C34:C40)</f>
+        <v>119</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" ref="D33:E33" si="7">SUM(D34:D40)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>37</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>79</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="2">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="25">
+        <f>IFERROR(F$33/$C$33*C34,"")</f>
+        <v>7.7731092436974789</v>
+      </c>
+      <c r="G34" s="25" t="str">
+        <f>IFERROR(G$33/$D$33*D34,"")</f>
+        <v/>
+      </c>
+      <c r="H34" s="25" t="str">
+        <f>IFERROR(H$33/$E$33*E34,"")</f>
+        <v/>
+      </c>
+      <c r="I34" s="34">
+        <f>SUM(F34:H34)</f>
+        <v>7.7731092436974789</v>
+      </c>
+      <c r="J34" s="29">
+        <f t="shared" ref="J34:J40" si="8">IFERROR(VLOOKUP(B34,$O$16:$P$24,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="29">
+        <f>SUM(I34:J34)</f>
+        <v>7.7731092436974789</v>
+      </c>
+      <c r="P34" s="43"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>81</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="2">
+        <v>24</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="25">
+        <f t="shared" ref="F35:F40" si="9">IFERROR(F$33/$C$33*C35,"")</f>
+        <v>7.46218487394958</v>
+      </c>
+      <c r="G35" s="25" t="str">
+        <f t="shared" ref="G35:G40" si="10">IFERROR(G$33/$D$33*D35,"")</f>
+        <v/>
+      </c>
+      <c r="H35" s="25" t="str">
+        <f t="shared" ref="H35:H40" si="11">IFERROR(H$33/$E$33*E35,"")</f>
+        <v/>
+      </c>
+      <c r="I35" s="34">
+        <f t="shared" ref="I35:I40" si="12">SUM(F35:H35)</f>
+        <v>7.46218487394958</v>
+      </c>
+      <c r="J35" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="29">
+        <f>SUM(I35:J35)</f>
+        <v>7.46218487394958</v>
+      </c>
+      <c r="O35" s="58"/>
+      <c r="P35" s="24"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>22</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2">
+        <v>23</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="25">
+        <f t="shared" si="9"/>
+        <v>7.151260504201681</v>
+      </c>
+      <c r="G36" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H36" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I36" s="34">
+        <f t="shared" si="12"/>
+        <v>7.151260504201681</v>
+      </c>
+      <c r="J36" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="29">
+        <f>SUM(I36:J36)</f>
+        <v>7.151260504201681</v>
+      </c>
+      <c r="O36" s="58"/>
+      <c r="P36" s="23"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="2">
+        <v>22</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="25">
+        <f t="shared" si="9"/>
+        <v>6.8403361344537821</v>
+      </c>
+      <c r="G37" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H37" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I37" s="34">
+        <f t="shared" si="12"/>
+        <v>6.8403361344537821</v>
+      </c>
+      <c r="J37" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="29">
+        <f>SUM(I37:J37)</f>
+        <v>6.8403361344537821</v>
+      </c>
+      <c r="O37" s="58"/>
+      <c r="P37" s="24"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
+        <v>14</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="2">
+        <v>15</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="25">
+        <f t="shared" si="9"/>
+        <v>4.6638655462184877</v>
+      </c>
+      <c r="G38" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H38" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I38" s="34">
+        <f t="shared" si="12"/>
+        <v>4.6638655462184877</v>
+      </c>
+      <c r="J38" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="29">
+        <f>SUM(I38:J38)</f>
+        <v>4.6638655462184877</v>
+      </c>
+      <c r="O38" s="58"/>
+      <c r="P38" s="24"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
+        <v>46</v>
+      </c>
+      <c r="B39" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="C39" s="2">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="25">
+        <f t="shared" si="9"/>
+        <v>2.4873949579831933</v>
+      </c>
+      <c r="G39" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H39" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I39" s="34">
+        <f t="shared" si="12"/>
+        <v>2.4873949579831933</v>
+      </c>
+      <c r="J39" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="29">
+        <f>SUM(I39:J39)</f>
+        <v>2.4873949579831933</v>
+      </c>
+      <c r="O39" s="58"/>
+      <c r="P39" s="24"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="25">
+        <f t="shared" si="9"/>
+        <v>0.62184873949579833</v>
+      </c>
+      <c r="G40" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H40" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I40" s="34">
+        <f t="shared" si="12"/>
+        <v>0.62184873949579833</v>
+      </c>
+      <c r="J40" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="29">
+        <f>SUM(I40:J40)</f>
+        <v>0.62184873949579833</v>
+      </c>
+      <c r="O40" s="58"/>
+      <c r="P40" s="24"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="B41" s="23"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="C44" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="B45" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="88"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="B46" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="89"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="B47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="89"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="B48" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="89"/>
+    </row>
+    <row r="49" spans="2:16">
+      <c r="B49" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="89"/>
+    </row>
+    <row r="50" spans="2:16">
+      <c r="B50" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="89"/>
+    </row>
+    <row r="51" spans="2:16">
+      <c r="B51" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="90"/>
+    </row>
+    <row r="52" spans="2:16">
+      <c r="B52" s="87"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="23"/>
+    </row>
+    <row r="53" spans="2:16">
+      <c r="B53" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16">
+      <c r="B54" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P54" s="43"/>
+    </row>
+    <row r="55" spans="2:16">
+      <c r="B55" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16">
+      <c r="B56" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="P56" s="24"/>
+    </row>
+    <row r="57" spans="2:16">
+      <c r="B57" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16">
+      <c r="B58" s="87" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16">
+      <c r="B59" s="87" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="K31:K33"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B9:F11">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -17095,7 +18988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -17314,7 +19207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -17579,744 +19472,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M49"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1">
-        <v>3</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="4">
-        <f>B1/SUM(B$1:B$3)</f>
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" ref="C5:D5" si="0">C1/SUM(C$1:C$3)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" s="4">
-        <f t="shared" ref="B6:D7" si="1">B2/SUM(B$1:B$3)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D7" s="4">
-        <f>D3/SUM(D$1:D$3)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F7">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>40</v>
-      </c>
-      <c r="I8">
-        <v>23</v>
-      </c>
-      <c r="J8">
-        <v>14</v>
-      </c>
-      <c r="K8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8">
-        <f>B$13*B5</f>
-        <v>22.5</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" ref="C9:D9" si="2">C$13*C5</f>
-        <v>14.0625</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="2"/>
-        <v>8.4375</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="I9">
-        <v>15</v>
-      </c>
-      <c r="J9">
-        <v>9</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8">
-        <f t="shared" ref="B10:D11" si="3">B$13*B6</f>
-        <v>15</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="3"/>
-        <v>9.375</v>
-      </c>
-      <c r="D10" s="8">
-        <f>D$13*D6</f>
-        <v>5.625</v>
-      </c>
-      <c r="I10">
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="8">
-        <f>B$13*B7</f>
-        <v>7.5</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" si="3"/>
-        <v>4.6875</v>
-      </c>
-      <c r="D11" s="8">
-        <f t="shared" si="3"/>
-        <v>2.8125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="B13" s="5">
-        <f>E19</f>
-        <v>45</v>
-      </c>
-      <c r="C13" s="5">
-        <f>E20</f>
-        <v>28.125</v>
-      </c>
-      <c r="D13" s="5">
-        <f>E21</f>
-        <v>16.875</v>
-      </c>
-      <c r="I13">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="I14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="I15">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="D18" s="2"/>
-      <c r="E18" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19" s="9">
-        <f>C19/SUM(C$19:C$21)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="10">
-        <f>$E$18*D19</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20" s="9">
-        <f>C20/SUM(C$19:C$21)</f>
-        <v>0.3125</v>
-      </c>
-      <c r="E20" s="10">
-        <f t="shared" ref="E20:E21" si="4">$E$18*D20</f>
-        <v>28.125</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21" s="9">
-        <f t="shared" ref="D21" si="5">C21/SUM(C$19:C$21)</f>
-        <v>0.1875</v>
-      </c>
-      <c r="E21" s="10">
-        <f t="shared" si="4"/>
-        <v>16.875</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="D23" s="2"/>
-      <c r="E23" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24" s="9">
-        <f>C24/SUM(C$24:C$26)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="10">
-        <f>$E$23*D24</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25" s="9">
-        <f t="shared" ref="D25:D26" si="6">C25/SUM(C$24:C$26)</f>
-        <v>0.3125</v>
-      </c>
-      <c r="E25" s="10">
-        <f t="shared" ref="E25:E26" si="7">$E$23*D25</f>
-        <v>28.125</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26" s="9">
-        <f t="shared" si="6"/>
-        <v>0.1875</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="7"/>
-        <v>16.875</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="27"/>
-      <c r="C29" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="98" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29" s="98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="27"/>
-      <c r="C30" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="2"/>
-      <c r="C31" s="3">
-        <f>SUM(C32:C39)</f>
-        <v>171</v>
-      </c>
-      <c r="D31" s="3">
-        <f>SUM(D32:D39)</f>
-        <v>105</v>
-      </c>
-      <c r="E31" s="3">
-        <f>SUM(E32:E39)</f>
-        <v>113</v>
-      </c>
-      <c r="F31" s="3">
-        <v>45</v>
-      </c>
-      <c r="G31" s="3">
-        <v>28</v>
-      </c>
-      <c r="H31" s="3">
-        <v>17</v>
-      </c>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="2">
-        <v>14</v>
-      </c>
-      <c r="D32" s="2">
-        <v>25</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="25">
-        <f>F$31/$C$31*C32</f>
-        <v>3.6842105263157894</v>
-      </c>
-      <c r="G32" s="25">
-        <f>G$31/$D$31*D32</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="H32" s="25">
-        <f>H$31/$E$31*E32</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="34">
-        <f>SUM(F32:H32)</f>
-        <v>10.350877192982455</v>
-      </c>
-      <c r="J32" s="29">
-        <v>9</v>
-      </c>
-      <c r="K32" s="29">
-        <f>SUM(I32:J32)</f>
-        <v>19.350877192982455</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="2">
-        <v>29</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2">
-        <v>26</v>
-      </c>
-      <c r="F33" s="25">
-        <f t="shared" ref="F33:F39" si="8">F$31/$C$31*C33</f>
-        <v>7.6315789473684204</v>
-      </c>
-      <c r="G33" s="25">
-        <f t="shared" ref="G33:G39" si="9">G$31/$D$31*D33</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="25">
-        <f t="shared" ref="H33:H39" si="10">H$31/$E$31*E33</f>
-        <v>3.9115044247787614</v>
-      </c>
-      <c r="I33" s="34">
-        <f t="shared" ref="I33:I39" si="11">SUM(F33:H33)</f>
-        <v>11.543083372147182</v>
-      </c>
-      <c r="J33" s="29">
-        <v>29</v>
-      </c>
-      <c r="K33" s="29">
-        <f t="shared" ref="K33:K39" si="12">SUM(I33:J33)</f>
-        <v>40.54308337214718</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="2">
-        <v>29</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2">
-        <v>24</v>
-      </c>
-      <c r="F34" s="25">
-        <f t="shared" si="8"/>
-        <v>7.6315789473684204</v>
-      </c>
-      <c r="G34" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="25">
-        <f t="shared" si="10"/>
-        <v>3.610619469026549</v>
-      </c>
-      <c r="I34" s="34">
-        <f t="shared" si="11"/>
-        <v>11.24219841639497</v>
-      </c>
-      <c r="J34" s="29">
-        <v>11</v>
-      </c>
-      <c r="K34" s="29">
-        <f t="shared" si="12"/>
-        <v>22.24219841639497</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="2">
-        <v>23</v>
-      </c>
-      <c r="D35" s="2">
-        <v>31</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="25">
-        <f t="shared" si="8"/>
-        <v>6.0526315789473681</v>
-      </c>
-      <c r="G35" s="25">
-        <f t="shared" si="9"/>
-        <v>8.2666666666666657</v>
-      </c>
-      <c r="H35" s="25">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="34">
-        <f t="shared" si="11"/>
-        <v>14.319298245614034</v>
-      </c>
-      <c r="J35" s="29">
-        <v>19</v>
-      </c>
-      <c r="K35" s="29">
-        <f t="shared" si="12"/>
-        <v>33.319298245614036</v>
-      </c>
-      <c r="M35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="2">
-        <v>40</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2">
-        <v>32</v>
-      </c>
-      <c r="F36" s="25">
-        <f t="shared" si="8"/>
-        <v>10.526315789473683</v>
-      </c>
-      <c r="G36" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="25">
-        <f t="shared" si="10"/>
-        <v>4.8141592920353986</v>
-      </c>
-      <c r="I36" s="34">
-        <f t="shared" si="11"/>
-        <v>15.340475081509082</v>
-      </c>
-      <c r="J36" s="29">
-        <v>23</v>
-      </c>
-      <c r="K36" s="29">
-        <f t="shared" si="12"/>
-        <v>38.340475081509084</v>
-      </c>
-      <c r="M36">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="2">
-        <v>36</v>
-      </c>
-      <c r="D37" s="2">
-        <v>16</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="25">
-        <f t="shared" si="8"/>
-        <v>9.473684210526315</v>
-      </c>
-      <c r="G37" s="25">
-        <f t="shared" si="9"/>
-        <v>4.2666666666666666</v>
-      </c>
-      <c r="H37" s="25">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="34">
-        <f t="shared" si="11"/>
-        <v>13.740350877192981</v>
-      </c>
-      <c r="J37" s="29">
-        <v>0</v>
-      </c>
-      <c r="K37" s="29">
-        <f t="shared" si="12"/>
-        <v>13.740350877192981</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2">
-        <v>19</v>
-      </c>
-      <c r="E38" s="2">
-        <v>9</v>
-      </c>
-      <c r="F38" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="25">
-        <f t="shared" si="9"/>
-        <v>5.0666666666666664</v>
-      </c>
-      <c r="H38" s="25">
-        <f t="shared" si="10"/>
-        <v>1.3539823008849559</v>
-      </c>
-      <c r="I38" s="34">
-        <f t="shared" si="11"/>
-        <v>6.4206489675516227</v>
-      </c>
-      <c r="J38" s="29">
-        <v>0</v>
-      </c>
-      <c r="K38" s="29">
-        <f t="shared" si="12"/>
-        <v>6.4206489675516227</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2">
-        <v>14</v>
-      </c>
-      <c r="E39" s="2">
-        <v>22</v>
-      </c>
-      <c r="F39" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="25">
-        <f t="shared" si="9"/>
-        <v>3.7333333333333334</v>
-      </c>
-      <c r="H39" s="25">
-        <f t="shared" si="10"/>
-        <v>3.3097345132743365</v>
-      </c>
-      <c r="I39" s="34">
-        <f t="shared" si="11"/>
-        <v>7.0430678466076699</v>
-      </c>
-      <c r="J39" s="29">
-        <v>0</v>
-      </c>
-      <c r="K39" s="29">
-        <f t="shared" si="12"/>
-        <v>7.0430678466076699</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="31">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="31">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="31">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="31">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="31">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="31">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="B48" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="31">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A50:K58">
-    <sortCondition descending="1" ref="C50:C58"/>
-  </sortState>
-  <mergeCells count="5">
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K29:K31"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/音超福布斯.xlsx
+++ b/音超福布斯.xlsx
@@ -36,7 +36,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">奖金分配46!$A$52:$S$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">奖金分配47!$A$53:$T$53</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="296">
   <si>
     <t>29届</t>
     <phoneticPr fontId="1"/>
@@ -2063,6 +2063,10 @@
   </si>
   <si>
     <t>德甲</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西班牙</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2654,6 +2658,15 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2669,30 +2682,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -2772,7 +2766,7 @@
         <xdr:cNvPr id="2" name="四角形吹き出し 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4340,23 +4334,23 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="27"/>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97" t="s">
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="98" t="s">
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="98" t="s">
+      <c r="J29" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="98" t="s">
+      <c r="K29" s="101" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4380,9 +4374,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="2"/>
@@ -4407,9 +4401,9 @@
       <c r="H31" s="3">
         <v>17</v>
       </c>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="2" t="s">
@@ -5097,23 +5091,23 @@
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="27"/>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97" t="s">
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="98" t="s">
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="98" t="s">
+      <c r="J29" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="98" t="s">
+      <c r="K29" s="101" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5137,9 +5131,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="2"/>
@@ -5164,9 +5158,9 @@
       <c r="H31" s="3">
         <v>11</v>
       </c>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
       <c r="M31" t="s">
         <v>71</v>
       </c>
@@ -5997,23 +5991,23 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="27"/>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97" t="s">
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="98" t="s">
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="98" t="s">
+      <c r="J29" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="98" t="s">
+      <c r="K29" s="101" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6037,9 +6031,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="2"/>
@@ -6064,9 +6058,9 @@
       <c r="H31" s="3">
         <v>13</v>
       </c>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="2" t="s">
@@ -6762,23 +6756,23 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="27"/>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97" t="s">
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="98" t="s">
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="98" t="s">
+      <c r="J29" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="98" t="s">
+      <c r="K29" s="101" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6802,9 +6796,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="2"/>
@@ -6829,9 +6823,9 @@
       <c r="H31" s="3">
         <v>18</v>
       </c>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="2" t="s">
@@ -7491,23 +7485,23 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="27"/>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97" t="s">
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="98" t="s">
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="98" t="s">
+      <c r="J29" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="98" t="s">
+      <c r="K29" s="101" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7531,9 +7525,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="2"/>
@@ -7558,9 +7552,9 @@
       <c r="H31" s="3">
         <v>19</v>
       </c>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="2" t="s">
@@ -8326,23 +8320,23 @@
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="27"/>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97" t="s">
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="98" t="s">
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="98" t="s">
+      <c r="J29" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="98" t="s">
+      <c r="K29" s="101" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8366,9 +8360,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" s="2"/>
@@ -8393,9 +8387,9 @@
       <c r="H31" s="3">
         <v>14</v>
       </c>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="26" t="s">
@@ -9352,23 +9346,23 @@
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="27"/>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97" t="s">
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="98" t="s">
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="98" t="s">
+      <c r="J29" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="98" t="s">
+      <c r="K29" s="101" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9392,9 +9386,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
     </row>
     <row r="31" spans="2:20">
       <c r="B31" s="2"/>
@@ -9419,9 +9413,9 @@
       <c r="H31" s="3">
         <v>17</v>
       </c>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
     </row>
     <row r="32" spans="2:20">
       <c r="B32" s="26" t="s">
@@ -10464,23 +10458,23 @@
     </row>
     <row r="29" spans="1:15">
       <c r="B29" s="27"/>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97" t="s">
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="98" t="s">
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="98" t="s">
+      <c r="J29" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="98" t="s">
+      <c r="K29" s="101" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10504,9 +10498,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
     </row>
     <row r="31" spans="1:15">
       <c r="B31" s="2"/>
@@ -10525,9 +10519,9 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32">
@@ -11454,23 +11448,23 @@
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="27"/>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97" t="s">
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="98" t="s">
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="98" t="s">
+      <c r="J29" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="98" t="s">
+      <c r="K29" s="101" t="s">
         <v>5</v>
       </c>
     </row>
@@ -11494,9 +11488,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="2"/>
@@ -11521,9 +11515,9 @@
       <c r="H31" s="3">
         <v>17</v>
       </c>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="26" t="s">
@@ -12388,23 +12382,23 @@
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="27"/>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97" t="s">
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="98" t="s">
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="98" t="s">
+      <c r="J29" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="98" t="s">
+      <c r="K29" s="101" t="s">
         <v>5</v>
       </c>
     </row>
@@ -12428,9 +12422,9 @@
       <c r="H30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
       <c r="M30" t="s">
         <v>232</v>
       </c>
@@ -12458,9 +12452,9 @@
       <c r="H31" s="3">
         <v>15</v>
       </c>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="26" t="s">
@@ -13957,23 +13951,23 @@
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="27"/>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="97" t="s">
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="98" t="s">
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="98" t="s">
+      <c r="J30" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="98" t="s">
+      <c r="K30" s="101" t="s">
         <v>5</v>
       </c>
     </row>
@@ -13989,9 +13983,9 @@
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="2"/>
@@ -14012,9 +14006,9 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="26" t="s">
@@ -14442,7 +14436,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B9:E11">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15054,23 +15048,23 @@
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="27"/>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="97" t="s">
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="98" t="s">
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="98" t="s">
+      <c r="J30" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="98" t="s">
+      <c r="K30" s="101" t="s">
         <v>5</v>
       </c>
       <c r="N30" s="78" t="s">
@@ -15089,9 +15083,9 @@
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="2"/>
@@ -15112,9 +15106,9 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33">
@@ -15561,7 +15555,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B9:E11">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17128,23 +17122,23 @@
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="27"/>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="97" t="s">
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="98" t="s">
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="98" t="s">
+      <c r="J30" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="98" t="s">
+      <c r="K30" s="101" t="s">
         <v>5</v>
       </c>
     </row>
@@ -17160,9 +17154,9 @@
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="2"/>
@@ -17183,9 +17177,9 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33">
@@ -17658,7 +17652,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B9:E11">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17674,8 +17668,8 @@
   </sheetPr>
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -17959,7 +17953,7 @@
         <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>275</v>
@@ -17968,6 +17962,9 @@
         <v>274</v>
       </c>
       <c r="S11" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="T11" s="7" t="s">
         <v>227</v>
       </c>
     </row>
@@ -18061,7 +18058,7 @@
         <v>15</v>
       </c>
       <c r="P16" s="60">
-        <f t="shared" ref="P16:P23" si="6">SUMIF($P$12:$S$14,O16,$K$12:$O$14)</f>
+        <f>SUMIF($P$12:$T$14,O16,$K$12:$O$14)</f>
         <v>0</v>
       </c>
     </row>
@@ -18077,7 +18074,7 @@
         <v>18</v>
       </c>
       <c r="P17" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="P17:P23" si="6">SUMIF($P$12:$T$14,O17,$K$12:$O$14)</f>
         <v>0</v>
       </c>
     </row>
@@ -18191,7 +18188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" ht="15">
       <c r="C22" s="49">
         <v>4</v>
       </c>
@@ -18213,10 +18210,15 @@
       <c r="L22" s="94">
         <v>39</v>
       </c>
-      <c r="O22" s="78"/>
-      <c r="P22" s="60"/>
-    </row>
-    <row r="23" spans="2:18" ht="15">
+      <c r="O22" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="P22" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
       <c r="C23" s="49">
         <v>10</v>
       </c>
@@ -18228,16 +18230,9 @@
         <f>$E$18*D23</f>
         <v>65.625</v>
       </c>
-      <c r="J23" s="101"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="103"/>
-      <c r="O23" s="92" t="s">
-        <v>273</v>
-      </c>
-      <c r="P23" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="J23" s="96"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="98"/>
       <c r="Q23" s="57"/>
       <c r="R23" s="57"/>
     </row>
@@ -18272,23 +18267,23 @@
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="27"/>
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="97" t="s">
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="98" t="s">
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="98" t="s">
+      <c r="J31" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="K31" s="98" t="s">
+      <c r="K31" s="101" t="s">
         <v>5</v>
       </c>
     </row>
@@ -18304,15 +18299,15 @@
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
     </row>
     <row r="33" spans="1:16">
       <c r="B33" s="2"/>
       <c r="C33" s="3">
         <f>SUM(C34:C40)</f>
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" ref="D33:E33" si="7">SUM(D34:D40)</f>
@@ -18323,13 +18318,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34">
@@ -18338,18 +18333,16 @@
       <c r="B34" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="2">
-        <v>25</v>
-      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="25" t="str">
         <f>IFERROR(F$33/$C$33*C34,"")</f>
-        <v>7.7731092436974789</v>
+        <v/>
       </c>
       <c r="G34" s="25" t="str">
         <f>IFERROR(G$33/$D$33*D34,"")</f>
@@ -18361,15 +18354,15 @@
       </c>
       <c r="I34" s="34">
         <f>SUM(F34:H34)</f>
-        <v>7.7731092436974789</v>
+        <v>0</v>
       </c>
       <c r="J34" s="29">
         <f t="shared" ref="J34:J40" si="8">IFERROR(VLOOKUP(B34,$O$16:$P$24,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="K34" s="29">
-        <f>SUM(I34:J34)</f>
-        <v>7.7731092436974789</v>
+        <f t="shared" ref="K34:K40" si="9">SUM(I34:J34)</f>
+        <v>0</v>
       </c>
       <c r="P34" s="43"/>
     </row>
@@ -18380,38 +18373,36 @@
       <c r="B35" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="2">
-        <v>24</v>
-      </c>
+      <c r="C35" s="2"/>
       <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
       </c>
-      <c r="F35" s="25">
-        <f t="shared" ref="F35:F40" si="9">IFERROR(F$33/$C$33*C35,"")</f>
-        <v>7.46218487394958</v>
+      <c r="F35" s="25" t="str">
+        <f t="shared" ref="F35:F40" si="10">IFERROR(F$33/$C$33*C35,"")</f>
+        <v/>
       </c>
       <c r="G35" s="25" t="str">
-        <f t="shared" ref="G35:G40" si="10">IFERROR(G$33/$D$33*D35,"")</f>
+        <f t="shared" ref="G35:G40" si="11">IFERROR(G$33/$D$33*D35,"")</f>
         <v/>
       </c>
       <c r="H35" s="25" t="str">
-        <f t="shared" ref="H35:H40" si="11">IFERROR(H$33/$E$33*E35,"")</f>
+        <f t="shared" ref="H35:H40" si="12">IFERROR(H$33/$E$33*E35,"")</f>
         <v/>
       </c>
       <c r="I35" s="34">
-        <f t="shared" ref="I35:I40" si="12">SUM(F35:H35)</f>
-        <v>7.46218487394958</v>
+        <f t="shared" ref="I35:I40" si="13">SUM(F35:H35)</f>
+        <v>0</v>
       </c>
       <c r="J35" s="29">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K35" s="29">
-        <f>SUM(I35:J35)</f>
-        <v>7.46218487394958</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="O35" s="58"/>
       <c r="P35" s="24"/>
@@ -18423,38 +18414,36 @@
       <c r="B36" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="2">
-        <v>23</v>
-      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
       </c>
-      <c r="F36" s="25">
-        <f t="shared" si="9"/>
-        <v>7.151260504201681</v>
-      </c>
-      <c r="G36" s="25" t="str">
+      <c r="F36" s="25" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H36" s="25" t="str">
+      <c r="G36" s="25" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
+      <c r="H36" s="25" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="I36" s="34">
-        <f t="shared" si="12"/>
-        <v>7.151260504201681</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="J36" s="29">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K36" s="29">
-        <f>SUM(I36:J36)</f>
-        <v>7.151260504201681</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="O36" s="58"/>
       <c r="P36" s="23"/>
@@ -18466,38 +18455,36 @@
       <c r="B37" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="C37" s="2">
-        <v>22</v>
-      </c>
+      <c r="C37" s="2"/>
       <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
       </c>
-      <c r="F37" s="25">
-        <f t="shared" si="9"/>
-        <v>6.8403361344537821</v>
-      </c>
-      <c r="G37" s="25" t="str">
+      <c r="F37" s="25" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H37" s="25" t="str">
+      <c r="G37" s="25" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
+      <c r="H37" s="25" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="I37" s="34">
-        <f t="shared" si="12"/>
-        <v>6.8403361344537821</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="J37" s="29">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K37" s="29">
-        <f>SUM(I37:J37)</f>
-        <v>6.8403361344537821</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="O37" s="58"/>
       <c r="P37" s="24"/>
@@ -18509,38 +18496,36 @@
       <c r="B38" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="2">
-        <v>15</v>
-      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
       </c>
-      <c r="F38" s="25">
-        <f t="shared" si="9"/>
-        <v>4.6638655462184877</v>
-      </c>
-      <c r="G38" s="25" t="str">
+      <c r="F38" s="25" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H38" s="25" t="str">
+      <c r="G38" s="25" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
+      <c r="H38" s="25" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="I38" s="34">
-        <f t="shared" si="12"/>
-        <v>4.6638655462184877</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="J38" s="29">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K38" s="29">
-        <f>SUM(I38:J38)</f>
-        <v>4.6638655462184877</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="O38" s="58"/>
       <c r="P38" s="24"/>
@@ -18552,38 +18537,36 @@
       <c r="B39" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="C39" s="2">
-        <v>8</v>
-      </c>
+      <c r="C39" s="2"/>
       <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
       </c>
-      <c r="F39" s="25">
-        <f t="shared" si="9"/>
-        <v>2.4873949579831933</v>
-      </c>
-      <c r="G39" s="25" t="str">
+      <c r="F39" s="25" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H39" s="25" t="str">
+      <c r="G39" s="25" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
+      <c r="H39" s="25" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="I39" s="34">
-        <f t="shared" si="12"/>
-        <v>2.4873949579831933</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="J39" s="29">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K39" s="29">
-        <f>SUM(I39:J39)</f>
-        <v>2.4873949579831933</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="O39" s="58"/>
       <c r="P39" s="24"/>
@@ -18595,38 +18578,36 @@
       <c r="B40" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="C40" s="2">
-        <v>2</v>
-      </c>
+      <c r="C40" s="2"/>
       <c r="D40" s="2">
         <v>0</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
       </c>
-      <c r="F40" s="25">
-        <f t="shared" si="9"/>
-        <v>0.62184873949579833</v>
-      </c>
-      <c r="G40" s="25" t="str">
+      <c r="F40" s="25" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H40" s="25" t="str">
+      <c r="G40" s="25" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
+      <c r="H40" s="25" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="I40" s="34">
-        <f t="shared" si="12"/>
-        <v>0.62184873949579833</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="J40" s="29">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K40" s="29">
-        <f>SUM(I40:J40)</f>
-        <v>0.62184873949579833</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="O40" s="58"/>
       <c r="P40" s="24"/>
@@ -18760,7 +18741,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B9:F11">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/音超福布斯.xlsx
+++ b/音超福布斯.xlsx
@@ -36,7 +36,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">奖金分配46!$A$52:$S$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">奖金分配47!$A$53:$T$53</definedName>
   </definedNames>
-  <calcPr calcId="124519" calcOnSave="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="297">
   <si>
     <t>29届</t>
     <phoneticPr fontId="1"/>
@@ -2067,6 +2067,10 @@
   </si>
   <si>
     <t>西班牙</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黑</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2766,7 +2770,7 @@
         <xdr:cNvPr id="2" name="四角形吹き出し 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17668,8 +17672,8 @@
   </sheetPr>
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -17987,8 +17991,13 @@
       <c r="O12" s="91">
         <v>31</v>
       </c>
-      <c r="P12" s="1"/>
+      <c r="P12" s="60" t="s">
+        <v>15</v>
+      </c>
       <c r="Q12" s="1"/>
+      <c r="R12" s="26" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:20">
       <c r="B13" s="5">
@@ -18029,6 +18038,9 @@
       <c r="O13" s="91">
         <v>22</v>
       </c>
+      <c r="P13" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:20">
@@ -18058,8 +18070,8 @@
         <v>15</v>
       </c>
       <c r="P16" s="60">
-        <f>SUMIF($P$12:$T$14,O16,$K$12:$O$14)</f>
-        <v>0</v>
+        <f t="shared" ref="P16:P22" si="6">SUMIF($P$12:$T$14,O16,$K$12:$O$14)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -18074,8 +18086,8 @@
         <v>18</v>
       </c>
       <c r="P17" s="60">
-        <f t="shared" ref="P17:P23" si="6">SUMIF($P$12:$T$14,O17,$K$12:$O$14)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:18">
@@ -18097,11 +18109,11 @@
       </c>
       <c r="L18" s="94"/>
       <c r="O18" s="26" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="P18" s="60">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:18">
@@ -18125,7 +18137,7 @@
       </c>
       <c r="L19" s="94"/>
       <c r="O19" s="2" t="s">
-        <v>23</v>
+        <v>296</v>
       </c>
       <c r="P19" s="60">
         <f t="shared" si="6"/>
@@ -18358,11 +18370,11 @@
       </c>
       <c r="J34" s="29">
         <f t="shared" ref="J34:J40" si="8">IFERROR(VLOOKUP(B34,$O$16:$P$24,2,FALSE),0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K34" s="29">
-        <f t="shared" ref="K34:K40" si="9">SUM(I34:J34)</f>
-        <v>0</v>
+        <f t="shared" ref="K34:K40" ca="1" si="9">SUM(I34:J34)</f>
+        <v>15</v>
       </c>
       <c r="P34" s="43"/>
     </row>
@@ -18397,11 +18409,11 @@
         <v>0</v>
       </c>
       <c r="J35" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K35" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="O35" s="58"/>
@@ -18438,11 +18450,11 @@
         <v>0</v>
       </c>
       <c r="J36" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K36" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="O36" s="58"/>
@@ -18479,11 +18491,11 @@
         <v>0</v>
       </c>
       <c r="J37" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K37" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="O37" s="58"/>
@@ -18520,11 +18532,11 @@
         <v>0</v>
       </c>
       <c r="J38" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K38" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="O38" s="58"/>
@@ -18561,11 +18573,11 @@
         <v>0</v>
       </c>
       <c r="J39" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K39" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="O39" s="58"/>
@@ -18602,11 +18614,11 @@
         <v>0</v>
       </c>
       <c r="J40" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K40" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="O40" s="58"/>
